--- a/db_feed/DPPDTT/Sample_Templates/Sample 1/Sample_1.xlsx
+++ b/db_feed/DPPDTT/Sample_Templates/Sample 1/Sample_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulvenkatesh/Desktop/Github/ofet-db/db_feed/DPPDTT/Sample_Templates/Sample 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\DPPDTT\Sample_Templates\Sample 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73320FF3-5B99-5849-80E3-657F39436AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BD905B-3602-469D-9722-DDC06C041495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="25600" windowHeight="14900" firstSheet="1" activeTab="7" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Dropdown Items" sheetId="5" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Solution Makeup'!$A$15:$E$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Solution Makeup'!$A$14:$E$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="417">
   <si>
     <t>UNIT</t>
   </si>
@@ -1086,9 +1086,6 @@
     <t>Solvent 2: Copy and paste another solvent box here if a second solvent was used</t>
   </si>
   <si>
-    <t>0 to 100. If only one solvent, type 100</t>
-  </si>
-  <si>
     <t>Polymer 1: Usually the polymer semiconductor</t>
   </si>
   <si>
@@ -1276,12 +1273,6 @@
   </si>
   <si>
     <t>PubChemID</t>
-  </si>
-  <si>
-    <t>boiling_point</t>
-  </si>
-  <si>
-    <t>°C</t>
   </si>
   <si>
     <t>common_name</t>
@@ -1468,10 +1459,16 @@
     <t>OTS treatment</t>
   </si>
   <si>
-    <t>Stainless Steel</t>
-  </si>
-  <si>
     <t>[-100, 10]</t>
+  </si>
+  <si>
+    <t>0 to 1. If only one solvent, type 1</t>
+  </si>
+  <si>
+    <t>0 to 1. If only one polymer, type 1</t>
+  </si>
+  <si>
+    <t>stainless steel</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1478,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2110,7 +2107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2416,9 +2413,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2441,17 +2435,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2781,7 +2766,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2791,22 +2776,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87527978-2A5B-6545-88F5-0DA220A53CEB}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="75.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="28.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="3"/>
+    <col min="1" max="1" width="75.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2819,23 +2804,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="131" t="s">
+    <row r="2" spans="1:5" ht="37.5" customHeight="1">
+      <c r="A2" s="127" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="131"/>
+      <c r="B2" s="127"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="106" t="s">
         <v>277</v>
       </c>
@@ -2844,7 +2829,7 @@
       <c r="D4" s="95"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="107" t="s">
         <v>156</v>
       </c>
@@ -2859,7 +2844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.75">
       <c r="A6" s="107" t="s">
         <v>157</v>
       </c>
@@ -2871,7 +2856,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="107" t="s">
         <v>158</v>
       </c>
@@ -2883,13 +2868,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75">
       <c r="A8" s="107"/>
       <c r="B8" s="99"/>
       <c r="C8" s="99"/>
       <c r="D8" s="99"/>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="106" t="s">
         <v>160</v>
       </c>
@@ -2897,9 +2882,9 @@
       <c r="C9" s="99"/>
       <c r="D9" s="99"/>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="107" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B10" s="80" t="s">
         <v>163</v>
@@ -2907,13 +2892,13 @@
       <c r="C10" s="101"/>
       <c r="D10" s="101"/>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="107"/>
       <c r="B11" s="73"/>
       <c r="C11" s="73"/>
       <c r="D11" s="73"/>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="108" t="s">
         <v>37</v>
       </c>
@@ -2922,7 +2907,7 @@
       <c r="D12" s="55"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="109" t="s">
         <v>38</v>
       </c>
@@ -2931,9 +2916,9 @@
       <c r="D13" s="73"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="110" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B14" s="96"/>
       <c r="C14" s="102"/>
@@ -2944,9 +2929,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="111" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B15" s="96"/>
       <c r="C15" s="102"/>
@@ -2954,12 +2939,12 @@
         <v>241</v>
       </c>
       <c r="E15" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="111" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B16" s="96"/>
       <c r="C16" s="102"/>
@@ -2967,17 +2952,17 @@
         <v>241</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="111"/>
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
       <c r="D17" s="55"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="108" t="s">
         <v>161</v>
       </c>
@@ -2986,7 +2971,7 @@
       <c r="D18" s="55"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="106" t="s">
         <v>73</v>
       </c>
@@ -2994,12 +2979,12 @@
       <c r="C19" s="73"/>
       <c r="D19" s="73"/>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="107" t="s">
-        <v>405</v>
-      </c>
-      <c r="B20" s="122" t="s">
-        <v>411</v>
+        <v>402</v>
+      </c>
+      <c r="B20" s="121" t="s">
+        <v>408</v>
       </c>
       <c r="C20" s="101"/>
       <c r="D20" s="101" t="s">
@@ -3009,13 +2994,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="112"/>
       <c r="B21" s="73"/>
       <c r="C21" s="73"/>
       <c r="D21" s="73"/>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.75">
       <c r="A22" s="106" t="s">
         <v>74</v>
       </c>
@@ -3023,7 +3008,7 @@
       <c r="C22" s="73"/>
       <c r="D22" s="73"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="113" t="s">
         <v>159</v>
       </c>
@@ -3031,13 +3016,13 @@
       <c r="C23" s="103"/>
       <c r="D23" s="103"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="104"/>
       <c r="B24" s="104"/>
       <c r="C24" s="104"/>
       <c r="D24" s="104"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="42" t="s">
         <v>70</v>
       </c>
@@ -3047,7 +3032,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="42" t="s">
         <v>71</v>
       </c>
@@ -3057,7 +3042,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="42" t="s">
         <v>22</v>
       </c>
@@ -3067,7 +3052,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="42" t="s">
         <v>23</v>
       </c>
@@ -3080,7 +3065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="42" t="s">
         <v>25</v>
       </c>
@@ -3090,7 +3075,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="42" t="s">
         <v>26</v>
       </c>
@@ -3100,7 +3085,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="42" t="s">
         <v>27</v>
       </c>
@@ -3110,7 +3095,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="42" t="s">
         <v>28</v>
       </c>
@@ -3120,7 +3105,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="42" t="s">
         <v>29</v>
       </c>
@@ -3130,7 +3115,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="42" t="s">
         <v>30</v>
       </c>
@@ -3140,7 +3125,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="42" t="s">
         <v>31</v>
       </c>
@@ -3150,7 +3135,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="42" t="s">
         <v>32</v>
       </c>
@@ -3160,7 +3145,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="42" t="s">
         <v>33</v>
       </c>
@@ -3173,7 +3158,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="42" t="s">
         <v>35</v>
       </c>
@@ -3186,7 +3171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="15.75">
       <c r="A41" s="9"/>
     </row>
   </sheetData>
@@ -3349,82 +3334,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5882D5-D74D-473F-B8FF-8824B9621A3C}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="D46" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A10" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.83203125" customWidth="1"/>
-    <col min="9" max="9" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.85546875" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="15" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>17</v>
@@ -3433,12 +3418,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="G16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="17" t="s">
         <v>80</v>
       </c>
@@ -3461,7 +3446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="17" t="s">
         <v>47</v>
       </c>
@@ -3484,7 +3469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="16" t="s">
         <v>81</v>
       </c>
@@ -3507,9 +3492,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B20">
         <v>6895</v>
@@ -3518,16 +3503,16 @@
         <v>214.4</v>
       </c>
       <c r="D20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="16" t="s">
         <v>79</v>
       </c>
@@ -3538,18 +3523,18 @@
         <v>110.6</v>
       </c>
       <c r="D21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B22">
         <v>7809</v>
@@ -3561,13 +3546,13 @@
         <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="16" t="s">
         <v>226</v>
       </c>
@@ -3587,9 +3572,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.75">
       <c r="A24" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B24">
         <v>3776</v>
@@ -3607,9 +3592,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.75">
       <c r="A25" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B25">
         <v>180</v>
@@ -3627,12 +3612,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="15" t="s">
         <v>8</v>
       </c>
@@ -3664,9 +3649,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
@@ -3675,21 +3660,21 @@
         <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G31" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
@@ -3698,28 +3683,28 @@
         <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H32" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I32" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="J32">
         <v>7372</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -3727,22 +3712,22 @@
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H33" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I33" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="J33">
         <v>76261</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="15.75">
       <c r="B34" t="s">
         <v>59</v>
       </c>
@@ -3750,19 +3735,19 @@
         <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H34" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J34">
         <v>6399</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="15.75">
       <c r="B35" t="s">
         <v>60</v>
       </c>
@@ -3771,16 +3756,16 @@
       </c>
       <c r="G35" s="17"/>
       <c r="H35" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J35">
         <v>8157</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="15.75">
       <c r="B36" t="s">
         <v>61</v>
       </c>
@@ -3789,34 +3774,34 @@
       </c>
       <c r="G36" s="17"/>
       <c r="H36" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J36">
         <v>21354</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15.75">
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J37">
         <v>74057</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="15.75">
       <c r="B38" t="s">
         <v>63</v>
       </c>
@@ -3825,35 +3810,35 @@
       </c>
       <c r="G38" s="17"/>
       <c r="H38" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I38" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="J38">
         <v>21932446</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="15.75">
       <c r="G39" s="17"/>
     </row>
-    <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15.75">
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="15.75">
       <c r="H41" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15.75">
       <c r="G42" s="17"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" s="15" t="s">
         <v>10</v>
       </c>
@@ -3879,12 +3864,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="F49" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>130</v>
       </c>
@@ -3892,10 +3877,10 @@
         <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E50" t="s">
         <v>120</v>
@@ -3904,13 +3889,13 @@
         <v>95</v>
       </c>
       <c r="G50" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H50" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>131</v>
       </c>
@@ -3918,10 +3903,10 @@
         <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E51" t="s">
         <v>13</v>
@@ -3930,21 +3915,21 @@
         <v>124</v>
       </c>
       <c r="G51" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H51" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>66</v>
       </c>
       <c r="C52" t="s">
+        <v>322</v>
+      </c>
+      <c r="D52" t="s">
         <v>323</v>
-      </c>
-      <c r="D52" t="s">
-        <v>324</v>
       </c>
       <c r="E52" t="s">
         <v>121</v>
@@ -3953,23 +3938,23 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D53" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="15" t="s">
         <v>40</v>
       </c>
@@ -3992,15 +3977,15 @@
         <v>251</v>
       </c>
       <c r="H57" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B59" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C59" t="s">
         <v>135</v>
@@ -4018,15 +4003,15 @@
         <v>231</v>
       </c>
       <c r="H59" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B60" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C60" t="s">
         <v>136</v>
@@ -4044,15 +4029,15 @@
         <v>233</v>
       </c>
       <c r="H60" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B61" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C61" t="s">
         <v>137</v>
@@ -4061,9 +4046,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E62" t="s">
         <v>235</v>
@@ -4077,22 +4062,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A26" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
     <col min="5" max="5" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="20" t="s">
         <v>147</v>
       </c>
@@ -4107,36 +4092,36 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="132" t="s">
+    <row r="2" spans="1:5" ht="104.25" customHeight="1">
+      <c r="A2" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="90" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="119" t="s">
         <v>300</v>
-      </c>
-      <c r="B4" s="120" t="s">
-        <v>301</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="63" t="s">
         <v>281</v>
       </c>
-      <c r="B5" s="119" t="s">
-        <v>299</v>
+      <c r="B5" s="118" t="s">
+        <v>298</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="89" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B6" s="45">
         <v>5</v>
@@ -4149,13 +4134,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="42"/>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75">
       <c r="A8" s="106" t="s">
         <v>146</v>
       </c>
@@ -4163,7 +4148,7 @@
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
     </row>
-    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="16.5" thickBot="1">
       <c r="A9" s="106" t="s">
         <v>294</v>
       </c>
@@ -4171,7 +4156,7 @@
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="75" t="s">
         <v>291</v>
       </c>
@@ -4185,7 +4170,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="63" t="s">
         <v>281</v>
       </c>
@@ -4195,9 +4180,9 @@
       <c r="C11" s="40"/>
       <c r="D11" s="37"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B12" s="116" t="s">
         <v>47</v>
@@ -4208,7 +4193,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="63" t="s">
         <v>293</v>
       </c>
@@ -4221,250 +4206,282 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="63" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="B14" s="45">
-        <v>100</v>
-      </c>
-      <c r="C14" s="117" t="s">
-        <v>361</v>
-      </c>
-      <c r="D14" s="38" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="38"/>
+      <c r="E14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A15" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
-        <v>319</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="38"/>
-      <c r="E15" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="39" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A17" s="114" t="s">
+        <v>295</v>
+      </c>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
     </row>
-    <row r="18" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="114" t="s">
-        <v>295</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="75"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="63"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="65"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="63"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="66"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="66"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="63"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="66"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="63"/>
-      <c r="B24" s="47"/>
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" s="75" t="s">
+        <v>291</v>
+      </c>
+      <c r="B18" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="37"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="63" t="s">
+        <v>342</v>
+      </c>
+      <c r="B20" s="116" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="38"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="B21" s="45">
+        <v>7964</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="38"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="63" t="s">
+        <v>318</v>
+      </c>
+      <c r="B22" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="38"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A23" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="39" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="42"/>
-      <c r="D24" s="66"/>
-    </row>
-    <row r="25" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="69"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
+      <c r="D24" s="42"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75">
+      <c r="A25" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="110"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" thickBot="1">
+      <c r="A26" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="B26" s="110"/>
       <c r="C26" s="42"/>
       <c r="D26" s="42"/>
     </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="106" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-    </row>
-    <row r="28" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="106" t="s">
-        <v>297</v>
-      </c>
-      <c r="B28" s="110"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-    </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="75" t="s">
+    <row r="27" spans="1:4" ht="15.75">
+      <c r="A27" s="75" t="s">
         <v>280</v>
       </c>
-      <c r="B29" s="115" t="s">
+      <c r="B27" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="115" t="s">
+      <c r="C27" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D27" s="36" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
+      <c r="A28" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="37"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="B29" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="37"/>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="63" t="s">
-        <v>281</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>282</v>
+        <v>342</v>
+      </c>
+      <c r="B30" s="45" t="str">
+        <f>_xlfn.XLOOKUP('Solution Makeup'!B29,'Dropdown Items'!$D$16:$D$25,'Dropdown Items'!$E$16:$E$25)</f>
+        <v>poly[2,5-(2-octyldodecyl)-3,6-diketopyrrolopyrrole-alt-5,5-(2,5-di(thien-2-yl)thieno [3,2-b]thiophene)]</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="37"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="B31" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="37"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+      <c r="B31" s="45">
+        <v>143</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="D31" s="38"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="63" t="s">
-        <v>343</v>
-      </c>
-      <c r="B32" s="45" t="str">
-        <f>_xlfn.XLOOKUP('Solution Makeup'!B31,'Dropdown Items'!$D$16:$D$25,'Dropdown Items'!$E$16:$E$25)</f>
-        <v>poly[2,5-(2-octyldodecyl)-3,6-diketopyrrolopyrrole-alt-5,5-(2,5-di(thien-2-yl)thieno [3,2-b]thiophene)]</v>
-      </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="37"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="B32" s="45">
+        <v>292</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="D32" s="38"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="63" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="B33" s="45">
-        <v>143</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>363</v>
-      </c>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="C33" s="40"/>
       <c r="D33" s="38"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="63" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="B34" s="45">
-        <v>292</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>363</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C34" s="40"/>
       <c r="D34" s="38"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="63" t="s">
-        <v>283</v>
-      </c>
-      <c r="B35" s="45">
-        <v>2.0299999999999998</v>
-      </c>
+      <c r="E34" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="63"/>
+      <c r="B35" s="40"/>
       <c r="C35" s="40"/>
       <c r="D35" s="38"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="63" t="s">
-        <v>379</v>
-      </c>
-      <c r="B36" s="45">
-        <v>100</v>
-      </c>
+    <row r="36" spans="1:5">
+      <c r="A36" s="92" t="s">
+        <v>284</v>
+      </c>
+      <c r="B36" s="40"/>
       <c r="C36" s="40"/>
       <c r="D36" s="38"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="63"/>
-      <c r="B37" s="40"/>
+    <row r="37" spans="1:5">
+      <c r="A37" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>409</v>
+      </c>
       <c r="C37" s="40"/>
-      <c r="D37" s="38"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="92" t="s">
-        <v>284</v>
-      </c>
-      <c r="B38" s="40"/>
+      <c r="D37" s="38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>410</v>
+      </c>
       <c r="C38" s="40"/>
-      <c r="D38" s="38"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D38" s="38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="63" t="s">
-        <v>285</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>412</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="B39" s="45"/>
       <c r="C39" s="40"/>
       <c r="D39" s="38" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="63" t="s">
-        <v>286</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>413</v>
-      </c>
+    <row r="40" spans="1:5">
+      <c r="A40" s="93" t="s">
+        <v>288</v>
+      </c>
+      <c r="B40" s="45"/>
       <c r="C40" s="40"/>
       <c r="D40" s="38" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="63" t="s">
-        <v>287</v>
+    <row r="41" spans="1:5">
+      <c r="A41" s="93" t="s">
+        <v>289</v>
       </c>
       <c r="B41" s="45"/>
       <c r="C41" s="40"/>
@@ -4472,151 +4489,133 @@
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="93" t="s">
-        <v>288</v>
-      </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="38" t="s">
+    <row r="42" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A42" s="94" t="s">
+        <v>290</v>
+      </c>
+      <c r="B42" s="49"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="39" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="93" t="s">
-        <v>289</v>
-      </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="38" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="94" t="s">
-        <v>290</v>
-      </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="39" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-    </row>
-    <row r="46" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="106" t="s">
-        <v>298</v>
-      </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="75"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="36"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" thickBot="1">
+      <c r="A44" s="106" t="s">
+        <v>297</v>
+      </c>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75">
+      <c r="A45" s="75"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="36"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="63"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="37"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="63"/>
+      <c r="B47" s="116" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="40"/>
+      <c r="D47" s="37"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="63"/>
-      <c r="B48" s="35"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="40"/>
       <c r="D48" s="37"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="63"/>
-      <c r="B49" s="116"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="40"/>
-      <c r="D49" s="37"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D49" s="38"/>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="63"/>
       <c r="B50" s="45"/>
       <c r="C50" s="40"/>
-      <c r="D50" s="37"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D50" s="38"/>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="63"/>
       <c r="B51" s="45"/>
       <c r="C51" s="40"/>
       <c r="D51" s="38"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="63"/>
       <c r="B52" s="45"/>
       <c r="C52" s="40"/>
       <c r="D52" s="38"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="63"/>
-      <c r="B53" s="45"/>
+      <c r="B53" s="40"/>
       <c r="C53" s="40"/>
       <c r="D53" s="38"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="63"/>
-      <c r="B54" s="45"/>
+    <row r="54" spans="1:4">
+      <c r="A54" s="92"/>
+      <c r="B54" s="40"/>
       <c r="C54" s="40"/>
       <c r="D54" s="38"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="63"/>
-      <c r="B55" s="40"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="40"/>
       <c r="D55" s="38"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="92"/>
-      <c r="B56" s="40"/>
+    <row r="56" spans="1:4">
+      <c r="A56" s="63"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="40"/>
       <c r="D56" s="38"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="63"/>
       <c r="B57" s="45"/>
       <c r="C57" s="40"/>
       <c r="D57" s="38"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="63"/>
+    <row r="58" spans="1:4">
+      <c r="A58" s="93"/>
       <c r="B58" s="45"/>
       <c r="C58" s="40"/>
       <c r="D58" s="38"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="63"/>
+    <row r="59" spans="1:4">
+      <c r="A59" s="93"/>
       <c r="B59" s="45"/>
       <c r="C59" s="40"/>
       <c r="D59" s="38"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="93"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="38"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="93"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="38"/>
-    </row>
-    <row r="62" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="94"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="39"/>
-    </row>
-    <row r="96" spans="1:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="A96" s="56" t="s">
+    <row r="60" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A60" s="94"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="39"/>
+    </row>
+    <row r="94" spans="1:2" ht="26.25">
+      <c r="A94" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="B96" s="56" t="s">
+      <c r="B94" s="56" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4636,13 +4635,13 @@
           <x14:formula1>
             <xm:f>'Dropdown Items'!$A$17:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B12 B21</xm:sqref>
+          <xm:sqref>B12 B20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{8AE52FC6-9FFA-4D22-B5C8-489BB6B0469B}">
           <x14:formula1>
             <xm:f>'Dropdown Items'!$D$16:$D$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B31 B49</xm:sqref>
+          <xm:sqref>B29 B47</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4652,26 +4651,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6BB566-6734-43D2-B721-97B73307DE8D}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D20"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>89</v>
       </c>
@@ -4682,19 +4681,19 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="21"/>
-      <c r="G1" s="134" t="s">
+      <c r="G1" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="136"/>
-    </row>
-    <row r="2" spans="1:10" ht="130.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="132" t="s">
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="132"/>
+    </row>
+    <row r="2" spans="1:10" ht="130.35" customHeight="1">
+      <c r="A2" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -4702,7 +4701,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="16.5" thickBot="1">
       <c r="A3" s="11"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4713,7 +4712,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.5" thickBot="1">
       <c r="A4" s="75" t="s">
         <v>179</v>
       </c>
@@ -4733,7 +4732,7 @@
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="63" t="s">
         <v>164</v>
       </c>
@@ -4757,7 +4756,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="63" t="s">
         <v>172</v>
       </c>
@@ -4777,12 +4776,12 @@
       <c r="I6" s="42"/>
       <c r="J6" s="65"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="63" t="s">
         <v>171</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="66" t="s">
@@ -4797,9 +4796,9 @@
       <c r="I7" s="42"/>
       <c r="J7" s="65"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="63" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B8" s="47">
         <v>250</v>
@@ -4821,7 +4820,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="42" t="s">
         <v>174</v>
       </c>
@@ -4837,7 +4836,7 @@
       <c r="E9" s="55"/>
       <c r="F9" s="42"/>
       <c r="G9" s="63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H9" s="116"/>
       <c r="I9" s="42"/>
@@ -4845,7 +4844,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="42" t="s">
         <v>175</v>
       </c>
@@ -4869,12 +4868,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16.5" thickBot="1">
       <c r="A11" s="77" t="s">
         <v>173</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C11" s="78"/>
       <c r="D11" s="69" t="s">
@@ -4883,7 +4882,7 @@
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="63" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="42"/>
@@ -4891,7 +4890,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.5" thickBot="1">
       <c r="A12" s="42"/>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
@@ -4907,11 +4906,19 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="123"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
+    <row r="13" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A13" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>180</v>
+      </c>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="79"/>
@@ -4919,11 +4926,15 @@
       <c r="I13" s="55"/>
       <c r="J13" s="42"/>
     </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="125"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="127"/>
+    <row r="14" spans="1:10" ht="15.75">
+      <c r="A14" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="75" t="s">
@@ -4939,11 +4950,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="125"/>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="127"/>
+    <row r="15" spans="1:10">
+      <c r="A15" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="65"/>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
       <c r="G15" s="63" t="s">
@@ -4955,11 +4968,15 @@
       <c r="I15" s="42"/>
       <c r="J15" s="65"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="125"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
+    <row r="16" spans="1:10">
+      <c r="A16" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="66" t="s">
+        <v>274</v>
+      </c>
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
       <c r="G16" s="63" t="s">
@@ -4969,11 +4986,17 @@
       <c r="I16" s="42"/>
       <c r="J16" s="66"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="125"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
+    <row r="17" spans="1:10">
+      <c r="A17" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>274</v>
+      </c>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
       <c r="G17" s="63" t="s">
@@ -4985,15 +5008,21 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="125"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
+    <row r="18" spans="1:10">
+      <c r="A18" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="47"/>
+      <c r="C18" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>274</v>
+      </c>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
       <c r="G18" s="63" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H18" s="47"/>
       <c r="I18" s="42" t="s">
@@ -5003,11 +5032,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="125"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
+    <row r="19" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A19" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="48"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="69" t="s">
+        <v>241</v>
+      </c>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
       <c r="G19" s="63" t="s">
@@ -5021,11 +5054,11 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="130"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="125"/>
+    <row r="20" spans="1:10" ht="15.75">
+      <c r="A20" s="126"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="124"/>
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
       <c r="G20" s="63" t="s">
@@ -5033,13 +5066,13 @@
       </c>
       <c r="H20" s="47"/>
       <c r="I20" s="42" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J20" s="66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="16.5" thickBot="1">
       <c r="A21" s="42"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
@@ -5055,7 +5088,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="42"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
@@ -5067,7 +5100,7 @@
       <c r="I22" s="42"/>
       <c r="J22" s="55"/>
     </row>
-    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="42"/>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -5087,7 +5120,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="42"/>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
@@ -5103,7 +5136,7 @@
       <c r="I24" s="42"/>
       <c r="J24" s="65"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="42"/>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
@@ -5117,7 +5150,7 @@
       <c r="I25" s="42"/>
       <c r="J25" s="65"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="42"/>
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
@@ -5133,7 +5166,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="42"/>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
@@ -5151,7 +5184,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="42"/>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
@@ -5167,7 +5200,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="42"/>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
@@ -5185,7 +5218,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="42"/>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
@@ -5203,7 +5236,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" s="42"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
@@ -5211,7 +5244,7 @@
       <c r="E31" s="42"/>
       <c r="F31" s="42"/>
       <c r="G31" s="63" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H31" s="47"/>
       <c r="I31" s="42" t="s">
@@ -5221,7 +5254,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" s="42"/>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
@@ -5239,7 +5272,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="16.5" thickBot="1">
       <c r="A33" s="42"/>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
@@ -5255,7 +5288,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="16.5" thickBot="1">
       <c r="A34" s="42"/>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
@@ -5267,7 +5300,7 @@
       <c r="I34" s="42"/>
       <c r="J34" s="55"/>
     </row>
-    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="42"/>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
@@ -5287,7 +5320,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="42"/>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
@@ -5303,7 +5336,7 @@
       <c r="I36" s="42"/>
       <c r="J36" s="65"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="42"/>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
@@ -5317,7 +5350,7 @@
       <c r="I37" s="42"/>
       <c r="J37" s="65"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="42"/>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
@@ -5333,7 +5366,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="42"/>
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
@@ -5351,7 +5384,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="42"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
@@ -5369,7 +5402,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="16.5" thickBot="1">
       <c r="A41" s="42"/>
       <c r="B41" s="42"/>
       <c r="C41" s="42"/>
@@ -5385,7 +5418,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15.75" thickBot="1">
       <c r="A42" s="42"/>
       <c r="B42" s="42"/>
       <c r="C42" s="42"/>
@@ -5397,7 +5430,7 @@
       <c r="I42" s="87"/>
       <c r="J42" s="87"/>
     </row>
-    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="42"/>
       <c r="B43" s="42"/>
       <c r="C43" s="42"/>
@@ -5417,7 +5450,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" s="42"/>
       <c r="B44" s="42"/>
       <c r="C44" s="42"/>
@@ -5433,7 +5466,7 @@
       <c r="I44" s="42"/>
       <c r="J44" s="65"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" s="42"/>
       <c r="B45" s="42"/>
       <c r="C45" s="42"/>
@@ -5447,7 +5480,7 @@
       <c r="I45" s="42"/>
       <c r="J45" s="65"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" s="42"/>
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
@@ -5463,7 +5496,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" s="42"/>
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
@@ -5481,7 +5514,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" s="42"/>
       <c r="B48" s="42"/>
       <c r="C48" s="42"/>
@@ -5497,7 +5530,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10">
       <c r="A49" s="42"/>
       <c r="B49" s="42"/>
       <c r="C49" s="42"/>
@@ -5515,7 +5548,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10">
       <c r="A50" s="42"/>
       <c r="B50" s="42"/>
       <c r="C50" s="42"/>
@@ -5533,7 +5566,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="16.5" thickBot="1">
       <c r="G51" s="77" t="s">
         <v>173</v>
       </c>
@@ -5543,11 +5576,11 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5583,7 +5616,7 @@
           <x14:formula1>
             <xm:f>'Dropdown Items'!$A$17:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>H9 B17</xm:sqref>
+          <xm:sqref>H9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5595,19 +5628,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FF38F2-F6A4-4E96-86E9-D45968350123}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="21">
       <c r="A1" s="20" t="s">
         <v>101</v>
       </c>
@@ -5622,15 +5655,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="88" t="s">
         <v>187</v>
       </c>
@@ -5638,19 +5671,19 @@
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="89" t="s">
         <v>181</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="89" t="s">
         <v>183</v>
       </c>
@@ -5664,7 +5697,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="89" t="s">
         <v>184</v>
       </c>
@@ -5678,37 +5711,37 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="89" t="s">
         <v>185</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C8" s="85"/>
       <c r="D8" s="42" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="89" t="s">
         <v>186</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="88" t="s">
         <v>188</v>
       </c>
@@ -5716,21 +5749,21 @@
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="89" t="s">
         <v>182</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="89" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>56</v>
@@ -5740,9 +5773,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="89" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B14" s="43">
         <v>300</v>
@@ -5754,9 +5787,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="89" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B15" s="44"/>
       <c r="C15" s="42"/>
@@ -5764,9 +5797,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="89" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B16" s="43"/>
       <c r="C16" s="42"/>
@@ -5774,13 +5807,13 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="42"/>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
     </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="15.75">
       <c r="A18" s="90" t="s">
         <v>149</v>
       </c>
@@ -5788,9 +5821,9 @@
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="89" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B19" s="43">
         <v>11.5</v>
@@ -5802,9 +5835,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="89" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B20" s="43"/>
       <c r="C20" s="89" t="s">
@@ -5814,7 +5847,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="42" t="s">
         <v>189</v>
       </c>
@@ -5824,7 +5857,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="42" t="s">
         <v>190</v>
       </c>
@@ -5834,7 +5867,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="42" t="s">
         <v>191</v>
       </c>
@@ -5844,17 +5877,17 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="B24" s="42"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="D28" s="30"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="D31" s="1"/>
     </row>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1"/>
+    <row r="34" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5908,19 +5941,19 @@
   <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:D61"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="20" t="s">
         <v>192</v>
       </c>
@@ -5930,25 +5963,25 @@
         <v>180</v>
       </c>
       <c r="E1" s="33"/>
-      <c r="G1" s="134" t="s">
+      <c r="G1" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="136"/>
-    </row>
-    <row r="2" spans="1:10" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="132" t="s">
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="132"/>
+    </row>
+    <row r="2" spans="1:10" ht="130.5" customHeight="1">
+      <c r="A2" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="G3" s="26" t="s">
         <v>94</v>
       </c>
@@ -5956,7 +5989,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.5" thickBot="1">
       <c r="A4" s="75" t="s">
         <v>193</v>
       </c>
@@ -5974,7 +6007,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="63" t="s">
         <v>164</v>
       </c>
@@ -5996,7 +6029,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="63" t="s">
         <v>172</v>
       </c>
@@ -6014,12 +6047,12 @@
       <c r="I6" s="42"/>
       <c r="J6" s="65"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="63" t="s">
         <v>171</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="66" t="s">
@@ -6032,12 +6065,12 @@
       <c r="I7" s="42"/>
       <c r="J7" s="65"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="66" t="s">
@@ -6052,7 +6085,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="63" t="s">
         <v>174</v>
       </c>
@@ -6066,7 +6099,7 @@
         <v>274</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H9" s="44" t="s">
         <v>226</v>
@@ -6076,7 +6109,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="63" t="s">
         <v>175</v>
       </c>
@@ -6100,7 +6133,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16.5" thickBot="1">
       <c r="A11" s="77" t="s">
         <v>173</v>
       </c>
@@ -6122,7 +6155,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.5" thickBot="1">
       <c r="G12" s="77" t="s">
         <v>173</v>
       </c>
@@ -6132,7 +6165,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16.5" thickBot="1">
       <c r="A13" s="75" t="s">
         <v>193</v>
       </c>
@@ -6150,7 +6183,7 @@
       <c r="I13" s="55"/>
       <c r="J13" s="42"/>
     </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="63" t="s">
         <v>164</v>
       </c>
@@ -6172,7 +6205,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="63" t="s">
         <v>172</v>
       </c>
@@ -6190,12 +6223,12 @@
       <c r="I15" s="42"/>
       <c r="J15" s="65"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="63" t="s">
         <v>171</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="66" t="s">
@@ -6208,9 +6241,9 @@
       <c r="I16" s="42"/>
       <c r="J16" s="65"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B17" s="44" t="s">
         <v>226</v>
@@ -6230,7 +6263,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="63" t="s">
         <v>174</v>
       </c>
@@ -6252,7 +6285,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="63" t="s">
         <v>175</v>
       </c>
@@ -6276,7 +6309,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="16.5" thickBot="1">
       <c r="A20" s="77" t="s">
         <v>173</v>
       </c>
@@ -6296,13 +6329,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="G21" s="42"/>
       <c r="H21" s="42"/>
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
     </row>
-    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16.5" thickBot="1">
       <c r="G22" s="75" t="s">
         <v>198</v>
       </c>
@@ -6316,7 +6349,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.75">
       <c r="A23" s="75" t="s">
         <v>193</v>
       </c>
@@ -6338,7 +6371,7 @@
       <c r="I23" s="42"/>
       <c r="J23" s="65"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="63" t="s">
         <v>164</v>
       </c>
@@ -6354,7 +6387,7 @@
       <c r="I24" s="42"/>
       <c r="J24" s="65"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="63" t="s">
         <v>172</v>
       </c>
@@ -6372,41 +6405,41 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="63" t="s">
         <v>171</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="66" t="s">
         <v>274</v>
       </c>
       <c r="G26" s="63" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I26" s="42"/>
       <c r="J26" s="66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="66" t="s">
         <v>274</v>
       </c>
       <c r="G27" s="63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H27" s="47" t="str">
         <f>_xlfn.XLOOKUP(H26,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$I$32:$I$39)</f>
@@ -6417,7 +6450,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="63" t="s">
         <v>174</v>
       </c>
@@ -6442,7 +6475,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" s="63" t="s">
         <v>175</v>
       </c>
@@ -6466,7 +6499,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="16.5" thickBot="1">
       <c r="A30" s="77" t="s">
         <v>173</v>
       </c>
@@ -6482,13 +6515,13 @@
       </c>
       <c r="H30" s="47"/>
       <c r="I30" s="42" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J30" s="66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="16.5" thickBot="1">
       <c r="A31" s="42"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
@@ -6502,7 +6535,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1">
       <c r="A32" s="42"/>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
@@ -6512,7 +6545,7 @@
       <c r="I32" s="42"/>
       <c r="J32" s="42"/>
     </row>
-    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="75" t="s">
         <v>195</v>
       </c>
@@ -6538,7 +6571,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="63" t="s">
         <v>164</v>
       </c>
@@ -6556,7 +6589,7 @@
       <c r="I34" s="42"/>
       <c r="J34" s="65"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="63" t="s">
         <v>172</v>
       </c>
@@ -6572,7 +6605,7 @@
       <c r="I35" s="42"/>
       <c r="J35" s="65"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="63" t="s">
         <v>175</v>
       </c>
@@ -6594,7 +6627,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="63" t="s">
         <v>197</v>
       </c>
@@ -6616,7 +6649,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="63" t="s">
         <v>170</v>
       </c>
@@ -6638,7 +6671,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="16.5" thickBot="1">
       <c r="A39" s="77" t="s">
         <v>173</v>
       </c>
@@ -6656,7 +6689,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="A40" s="42"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
@@ -6670,7 +6703,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="16.5" thickBot="1">
       <c r="A41" s="42"/>
       <c r="B41" s="42"/>
       <c r="C41" s="42"/>
@@ -6684,7 +6717,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="15.75">
       <c r="A42" s="75" t="s">
         <v>198</v>
       </c>
@@ -6698,7 +6731,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="A43" s="63" t="s">
         <v>164</v>
       </c>
@@ -6708,7 +6741,7 @@
       <c r="C43" s="42"/>
       <c r="D43" s="65"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="A44" s="63" t="s">
         <v>172</v>
       </c>
@@ -6718,44 +6751,43 @@
       <c r="C44" s="42"/>
       <c r="D44" s="65"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="A45" s="63" t="s">
         <v>171</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C45" s="42"/>
       <c r="D45" s="66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="A46" s="63" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C46" s="42"/>
       <c r="D46" s="66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="A47" s="63" t="s">
-        <v>343</v>
-      </c>
-      <c r="B47" s="47" t="str">
-        <f>_xlfn.XLOOKUP(B46,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$I$32:$I$39)</f>
-        <v>octyltrichlorosilane</v>
+        <v>342</v>
+      </c>
+      <c r="B47" s="47" t="s">
+        <v>381</v>
       </c>
       <c r="C47" s="42"/>
       <c r="D47" s="66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="A48" s="63" t="s">
         <v>293</v>
       </c>
@@ -6768,7 +6800,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="63" t="s">
         <v>174</v>
       </c>
@@ -6782,7 +6814,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="63" t="s">
         <v>175</v>
       </c>
@@ -6790,26 +6822,26 @@
         <v>8</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D50" s="66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="16.5" thickBot="1">
       <c r="A51" s="77" t="s">
         <v>173</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C51" s="78"/>
       <c r="D51" s="69" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="54" spans="1:4" ht="15.75">
       <c r="A54" s="75" t="s">
         <v>193</v>
       </c>
@@ -6823,7 +6855,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="63" t="s">
         <v>164</v>
       </c>
@@ -6833,7 +6865,7 @@
       <c r="C55" s="42"/>
       <c r="D55" s="65"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="63" t="s">
         <v>172</v>
       </c>
@@ -6843,21 +6875,21 @@
       <c r="C56" s="42"/>
       <c r="D56" s="65"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="63" t="s">
         <v>171</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C57" s="42"/>
       <c r="D57" s="66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B58" s="44" t="s">
         <v>79</v>
@@ -6867,7 +6899,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="63" t="s">
         <v>174</v>
       </c>
@@ -6881,7 +6913,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="63" t="s">
         <v>175</v>
       </c>
@@ -6895,7 +6927,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="16.5" thickBot="1">
       <c r="A61" s="77" t="s">
         <v>173</v>
       </c>
@@ -6907,12 +6939,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -6964,23 +6996,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E323FD3-6C48-44BB-9F06-8E13A7AFDEDD}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>98</v>
       </c>
@@ -6989,26 +7021,26 @@
       <c r="D1" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="134" t="s">
+      <c r="F1" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="136"/>
-    </row>
-    <row r="2" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="132" t="s">
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="132"/>
+    </row>
+    <row r="2" spans="1:10" ht="93" customHeight="1">
+      <c r="A2" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
       <c r="D2" s="46"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="29"/>
       <c r="F3" s="26" t="s">
         <v>106</v>
@@ -7017,13 +7049,13 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="F4" s="28" t="s">
         <v>107</v>
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="9" t="s">
         <v>109</v>
       </c>
@@ -7038,11 +7070,11 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="123"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
+    <row r="6" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
       <c r="F6" s="63" t="s">
         <v>208</v>
       </c>
@@ -7052,7 +7084,7 @@
       <c r="H6" s="42"/>
       <c r="I6" s="65"/>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="82" t="s">
         <v>100</v>
       </c>
@@ -7072,7 +7104,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="63" t="s">
         <v>208</v>
       </c>
@@ -7092,12 +7124,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="63" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="65" t="s">
@@ -7114,7 +7146,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="63" t="s">
         <v>215</v>
       </c>
@@ -7122,7 +7154,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D10" s="65" t="s">
         <v>274</v>
@@ -7139,7 +7171,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="63" t="s">
         <v>216</v>
       </c>
@@ -7164,7 +7196,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="63" t="s">
         <v>217</v>
       </c>
@@ -7184,7 +7216,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1">
       <c r="A13" s="63" t="s">
         <v>218</v>
       </c>
@@ -7204,7 +7236,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
       <c r="A14" s="63" t="s">
         <v>174</v>
       </c>
@@ -7222,7 +7254,7 @@
       <c r="H14" s="42"/>
       <c r="I14" s="55"/>
     </row>
-    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="63" t="s">
         <v>169</v>
       </c>
@@ -7244,9 +7276,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="63" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="42"/>
@@ -7262,7 +7294,7 @@
       <c r="H16" s="42"/>
       <c r="I16" s="65"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="63" t="s">
         <v>219</v>
       </c>
@@ -7282,12 +7314,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="63" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="65" t="s">
@@ -7298,13 +7330,13 @@
       </c>
       <c r="G18" s="47"/>
       <c r="H18" s="42" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I18" s="65" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="67" t="s">
         <v>173</v>
       </c>
@@ -7322,7 +7354,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="F20" s="63" t="s">
         <v>217</v>
       </c>
@@ -7335,7 +7367,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="F21" s="63" t="s">
         <v>218</v>
       </c>
@@ -7347,7 +7379,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="F22" s="63" t="s">
         <v>174</v>
       </c>
@@ -7359,7 +7391,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="F23" s="63" t="s">
         <v>169</v>
       </c>
@@ -7371,9 +7403,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="F24" s="63" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G24" s="47"/>
       <c r="H24" s="42"/>
@@ -7381,7 +7413,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="F25" s="63" t="s">
         <v>219</v>
       </c>
@@ -7393,9 +7425,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="F26" s="63" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G26" s="44"/>
       <c r="H26" s="42"/>
@@ -7403,7 +7435,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="F27" s="67" t="s">
         <v>173</v>
       </c>
@@ -7413,13 +7445,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="16.5" thickBot="1">
       <c r="F28" s="86"/>
       <c r="G28" s="42"/>
       <c r="H28" s="42"/>
       <c r="I28" s="55"/>
     </row>
-    <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.75">
       <c r="F29" s="60" t="s">
         <v>103</v>
       </c>
@@ -7431,7 +7463,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="F30" s="63" t="s">
         <v>208</v>
       </c>
@@ -7441,7 +7473,7 @@
       <c r="H30" s="42"/>
       <c r="I30" s="65"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="F31" s="63" t="s">
         <v>171</v>
       </c>
@@ -7451,7 +7483,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1">
       <c r="F32" s="67" t="s">
         <v>219</v>
       </c>
@@ -7463,13 +7495,13 @@
         <v>274</v>
       </c>
     </row>
-    <row r="33" spans="6:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:10" ht="15.75" thickBot="1">
       <c r="F33" s="55"/>
       <c r="G33" s="87"/>
       <c r="H33" s="87"/>
       <c r="I33" s="87"/>
     </row>
-    <row r="34" spans="6:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:10" ht="15.75">
       <c r="F34" s="82" t="s">
         <v>223</v>
       </c>
@@ -7484,7 +7516,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:10">
       <c r="F35" s="63" t="s">
         <v>208</v>
       </c>
@@ -7492,7 +7524,7 @@
       <c r="H35" s="42"/>
       <c r="I35" s="65"/>
     </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:10">
       <c r="F36" s="63" t="s">
         <v>171</v>
       </c>
@@ -7502,19 +7534,19 @@
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:10">
       <c r="F37" s="63" t="s">
         <v>215</v>
       </c>
       <c r="G37" s="47"/>
       <c r="H37" s="42" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I37" s="65" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:10">
       <c r="F38" s="63" t="s">
         <v>174</v>
       </c>
@@ -7526,9 +7558,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:10">
       <c r="F39" s="63" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G39" s="44"/>
       <c r="H39" s="42"/>
@@ -7536,7 +7568,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:10">
       <c r="F40" s="63" t="s">
         <v>173</v>
       </c>
@@ -7546,7 +7578,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="6:10">
       <c r="F41" s="63" t="s">
         <v>219</v>
       </c>
@@ -7561,7 +7593,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:10">
       <c r="F42" s="63" t="s">
         <v>275</v>
       </c>
@@ -7571,7 +7603,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="6:10">
       <c r="F43" s="63" t="s">
         <v>276</v>
       </c>
@@ -7581,7 +7613,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:10">
       <c r="F44" s="63" t="s">
         <v>221</v>
       </c>
@@ -7591,7 +7623,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="6:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:10" ht="15.75" thickBot="1">
       <c r="F45" s="67" t="s">
         <v>222</v>
       </c>
@@ -7639,21 +7671,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407D2B8A-E356-4CF8-BF78-D6DBB98A494F}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.5" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="21.75" thickBot="1">
       <c r="A1" s="20" t="s">
         <v>204</v>
       </c>
@@ -7663,25 +7695,25 @@
         <v>180</v>
       </c>
       <c r="E1" s="33"/>
-      <c r="G1" s="134" t="s">
+      <c r="G1" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="136"/>
-    </row>
-    <row r="2" spans="1:10" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="132" t="s">
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="132"/>
+    </row>
+    <row r="2" spans="1:10" ht="129.75" customHeight="1">
+      <c r="A2" s="128" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="G3" s="26" t="s">
         <v>94</v>
       </c>
@@ -7689,7 +7721,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="53" t="s">
         <v>252</v>
       </c>
@@ -7698,7 +7730,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="75" t="s">
         <v>206</v>
       </c>
@@ -7724,7 +7756,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="63" t="s">
         <v>164</v>
       </c>
@@ -7742,7 +7774,7 @@
       <c r="I6" s="42"/>
       <c r="J6" s="65"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="63" t="s">
         <v>172</v>
       </c>
@@ -7758,12 +7790,12 @@
       <c r="I7" s="42"/>
       <c r="J7" s="65"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="63" t="s">
         <v>171</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="66" t="s">
@@ -7778,7 +7810,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="63" t="s">
         <v>174</v>
       </c>
@@ -7802,7 +7834,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="63" t="s">
         <v>175</v>
       </c>
@@ -7810,7 +7842,7 @@
         <v>0.16</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>274</v>
@@ -7820,13 +7852,13 @@
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="42" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J10" s="66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="16.5" thickBot="1">
       <c r="A11" s="77" t="s">
         <v>173</v>
       </c>
@@ -7844,13 +7876,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="16.5" thickBot="1">
       <c r="G12" s="79"/>
       <c r="H12" s="42"/>
       <c r="I12" s="55"/>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75">
       <c r="G13" s="75" t="s">
         <v>193</v>
       </c>
@@ -7864,7 +7896,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="G14" s="63" t="s">
         <v>164</v>
       </c>
@@ -7874,7 +7906,7 @@
       <c r="I14" s="42"/>
       <c r="J14" s="65"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="G15" s="63" t="s">
         <v>172</v>
       </c>
@@ -7882,7 +7914,7 @@
       <c r="I15" s="42"/>
       <c r="J15" s="65"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="G16" s="63" t="s">
         <v>171</v>
       </c>
@@ -7892,9 +7924,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:10">
       <c r="G17" s="63" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H17" s="47"/>
       <c r="I17" s="42"/>
@@ -7902,7 +7934,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:10">
       <c r="G18" s="63" t="s">
         <v>174</v>
       </c>
@@ -7914,7 +7946,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:10">
       <c r="G19" s="63" t="s">
         <v>175</v>
       </c>
@@ -7926,7 +7958,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="7:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:10" ht="16.5" thickBot="1">
       <c r="G20" s="77" t="s">
         <v>173</v>
       </c>
@@ -7936,13 +7968,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="7:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:10" ht="15.75" thickBot="1">
       <c r="G21" s="42"/>
       <c r="H21" s="42"/>
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
     </row>
-    <row r="22" spans="7:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:10" ht="15.75">
       <c r="G22" s="75" t="s">
         <v>102</v>
       </c>
@@ -7956,7 +7988,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:10">
       <c r="G23" s="63" t="s">
         <v>164</v>
       </c>
@@ -7966,7 +7998,7 @@
       <c r="I23" s="42"/>
       <c r="J23" s="65"/>
     </row>
-    <row r="24" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:10">
       <c r="G24" s="63" t="s">
         <v>172</v>
       </c>
@@ -7974,7 +8006,7 @@
       <c r="I24" s="42"/>
       <c r="J24" s="65"/>
     </row>
-    <row r="25" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="7:10">
       <c r="G25" s="63" t="s">
         <v>171</v>
       </c>
@@ -7984,7 +8016,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="7:10">
       <c r="G26" s="63" t="s">
         <v>201</v>
       </c>
@@ -7994,7 +8026,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="7:10">
       <c r="G27" s="63" t="s">
         <v>202</v>
       </c>
@@ -8006,7 +8038,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="7:10">
       <c r="G28" s="63" t="s">
         <v>203</v>
       </c>
@@ -8016,7 +8048,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="7:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:10" ht="16.5" thickBot="1">
       <c r="G29" s="77" t="s">
         <v>173</v>
       </c>
@@ -8026,7 +8058,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
         <v>228</v>
       </c>
@@ -8065,50 +8097,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74937810-402C-794A-86DB-3B61877792EA}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.5" customWidth="1"/>
-    <col min="9" max="9" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.42578125" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="61" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" s="61" t="s">
         <v>406</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>407</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>408</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>409</v>
       </c>
       <c r="G1" s="71" t="s">
         <v>180</v>
       </c>
       <c r="H1"/>
-      <c r="I1" s="134" t="s">
+      <c r="I1" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="136"/>
-    </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="132"/>
+    </row>
+    <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="51" t="s">
         <v>254</v>
       </c>
@@ -8120,7 +8152,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26" t="s">
@@ -8130,7 +8162,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="53" t="s">
         <v>252</v>
       </c>
@@ -8141,47 +8173,47 @@
       <c r="J4"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="I5" s="70" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K5" s="61" t="s">
+        <v>403</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>404</v>
+      </c>
+      <c r="M5" s="61" t="s">
+        <v>405</v>
+      </c>
+      <c r="N5" s="61" t="s">
         <v>406</v>
-      </c>
-      <c r="L5" s="61" t="s">
-        <v>407</v>
-      </c>
-      <c r="M5" s="61" t="s">
-        <v>408</v>
-      </c>
-      <c r="N5" s="61" t="s">
-        <v>409</v>
       </c>
       <c r="O5" s="71" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75">
       <c r="A6" s="70" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C6" s="61" t="s">
+        <v>403</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>404</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>405</v>
+      </c>
+      <c r="F6" s="61" t="s">
         <v>406</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>407</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>408</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>409</v>
       </c>
       <c r="G6" s="71" t="s">
         <v>180</v>
@@ -8196,7 +8228,7 @@
       <c r="N6" s="42"/>
       <c r="O6" s="66"/>
     </row>
-    <row r="7" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="72" t="s">
         <v>249</v>
       </c>
@@ -8211,7 +8243,7 @@
         <v>230</v>
       </c>
       <c r="J7" s="64" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K7" s="42"/>
       <c r="L7" s="42"/>
@@ -8219,12 +8251,12 @@
       <c r="N7" s="73"/>
       <c r="O7" s="65"/>
     </row>
-    <row r="8" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="63" t="s">
         <v>230</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
@@ -8244,13 +8276,11 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>247</v>
-      </c>
+      <c r="B9" s="44"/>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
@@ -8259,7 +8289,7 @@
         <v>241</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="121" t="s">
+      <c r="I9" s="120" t="s">
         <v>231</v>
       </c>
       <c r="J9" s="47"/>
@@ -8273,8 +8303,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="121" t="s">
+    <row r="10" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A10" s="120" t="s">
         <v>231</v>
       </c>
       <c r="B10" s="47">
@@ -8290,7 +8320,7 @@
         <v>0.08</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G10" s="65" t="s">
         <v>239</v>
@@ -8307,13 +8337,11 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="74" t="s">
         <v>242</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>139</v>
-      </c>
+      <c r="B11" s="44"/>
       <c r="C11" s="73"/>
       <c r="D11" s="73"/>
       <c r="E11" s="73"/>
@@ -8322,8 +8350,8 @@
         <v>241</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="121" t="s">
-        <v>402</v>
+      <c r="I11" s="120" t="s">
+        <v>399</v>
       </c>
       <c r="J11" s="47"/>
       <c r="K11" s="42"/>
@@ -8334,9 +8362,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="121" t="s">
-        <v>402</v>
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A12" s="120" t="s">
+        <v>399</v>
       </c>
       <c r="B12" s="47">
         <v>9.48</v>
@@ -8363,7 +8391,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="63" t="s">
         <v>235</v>
       </c>
@@ -8392,7 +8420,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="63" t="s">
         <v>248</v>
       </c>
@@ -8414,7 +8442,7 @@
       <c r="N14" s="42"/>
       <c r="O14" s="66"/>
     </row>
-    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75">
       <c r="A15" s="63"/>
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
@@ -8432,7 +8460,7 @@
       <c r="N15" s="42"/>
       <c r="O15" s="66"/>
     </row>
-    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75">
       <c r="A16" s="72" t="s">
         <v>250</v>
       </c>
@@ -8455,12 +8483,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" s="63" t="s">
         <v>171</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
@@ -8484,7 +8512,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" s="63" t="s">
         <v>174</v>
       </c>
@@ -8514,7 +8542,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="63" t="s">
         <v>243</v>
       </c>
@@ -8545,12 +8573,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="63" t="s">
         <v>244</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C20" s="42" t="s">
         <v>41</v>
@@ -8562,7 +8590,7 @@
         <v>241</v>
       </c>
       <c r="H20" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I20" s="63" t="s">
         <v>259</v>
@@ -8576,7 +8604,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="63" t="s">
         <v>259</v>
       </c>
@@ -8603,7 +8631,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="63" t="s">
         <v>189</v>
       </c>
@@ -8627,7 +8655,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" s="63" t="s">
         <v>190</v>
       </c>
@@ -8651,7 +8679,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" s="63" t="s">
         <v>191</v>
       </c>
@@ -8667,7 +8695,7 @@
         <v>257</v>
       </c>
       <c r="I24" s="63" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J24" s="57"/>
       <c r="K24" s="42"/>
@@ -8678,9 +8706,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A25" s="63" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B25" s="57"/>
       <c r="C25" s="42"/>
@@ -8702,7 +8730,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A26" s="67" t="s">
         <v>173</v>
       </c>
@@ -8721,7 +8749,7 @@
       <c r="M26" s="73"/>
       <c r="N26" s="73"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="I27" s="73"/>
       <c r="J27" s="73"/>
       <c r="K27" s="73"/>
@@ -8729,7 +8757,7 @@
       <c r="M27" s="73"/>
       <c r="N27" s="73"/>
     </row>
-    <row r="28" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="H28" s="3"/>
       <c r="I28" s="42"/>
       <c r="J28" s="42"/>
@@ -8738,7 +8766,7 @@
       <c r="M28" s="42"/>
       <c r="N28" s="42"/>
     </row>
-    <row r="29" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="H29" s="3"/>
       <c r="I29"/>
       <c r="J29"/>
@@ -8747,7 +8775,7 @@
       <c r="M29"/>
       <c r="N29"/>
     </row>
-    <row r="30" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -8763,7 +8791,7 @@
       <c r="M30"/>
       <c r="N30"/>
     </row>
-    <row r="31" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="G31" s="28"/>
       <c r="I31"/>
       <c r="J31"/>
@@ -8772,7 +8800,7 @@
       <c r="M31"/>
       <c r="N31"/>
     </row>
-    <row r="32" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -8788,7 +8816,7 @@
       <c r="M32"/>
       <c r="N32"/>
     </row>
-    <row r="33" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="H33" s="3"/>
       <c r="I33"/>
       <c r="J33"/>
@@ -8797,7 +8825,7 @@
       <c r="M33"/>
       <c r="N33"/>
     </row>
-    <row r="34" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="H34" s="3"/>
       <c r="I34"/>
       <c r="J34"/>
@@ -8806,7 +8834,7 @@
       <c r="M34"/>
       <c r="N34"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -8816,7 +8844,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -8826,7 +8854,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -8835,7 +8863,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
@@ -8844,7 +8872,7 @@
       <c r="M40"/>
       <c r="N40"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -8853,7 +8881,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -8862,7 +8890,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="H43" s="3"/>
       <c r="I43"/>
       <c r="J43"/>
@@ -8871,7 +8899,7 @@
       <c r="M43"/>
       <c r="N43"/>
     </row>
-    <row r="44" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -8887,7 +8915,7 @@
       <c r="M44"/>
       <c r="N44"/>
     </row>
-    <row r="45" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -8903,7 +8931,7 @@
       <c r="M45"/>
       <c r="N45"/>
     </row>
-    <row r="46" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -8918,7 +8946,7 @@
       <c r="M46"/>
       <c r="N46"/>
     </row>
-    <row r="47" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -8933,7 +8961,7 @@
       <c r="M47"/>
       <c r="N47"/>
     </row>
-    <row r="48" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -8947,7 +8975,7 @@
       <c r="M48"/>
       <c r="N48"/>
     </row>
-    <row r="49" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -8961,10 +8989,10 @@
       <c r="M49"/>
       <c r="N49"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="8"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" s="2" t="s">
         <v>228</v>
       </c>
@@ -8980,19 +9008,19 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="15.75">
       <c r="A54" s="52"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -9001,7 +9029,7 @@
       <c r="F54" s="7"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="15.75">
       <c r="A55" s="52"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -9064,31 +9092,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD2D44-9B1B-421A-86D6-11D29F42E873}">
   <dimension ref="A1:XEZ120"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.1640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="42.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.1640625" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.6640625" style="3"/>
+    <col min="2" max="2" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="42.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.140625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="21.75" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>255</v>
       </c>
@@ -9097,7 +9125,7 @@
         <v>39</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>237</v>
@@ -9108,20 +9136,20 @@
       <c r="G1" t="s">
         <v>180</v>
       </c>
-      <c r="I1" s="134" t="s">
+      <c r="I1" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="136"/>
-    </row>
-    <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="131" t="s">
-        <v>400</v>
-      </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="132"/>
+    </row>
+    <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="90" customHeight="1">
+      <c r="A2" s="127" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -9131,7 +9159,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="54" t="s">
         <v>252</v>
       </c>
@@ -9148,7 +9176,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="54"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -9161,24 +9189,24 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75">
       <c r="A5" s="60" t="s">
         <v>111</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C5" s="61" t="s">
+        <v>403</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>405</v>
+      </c>
+      <c r="F5" s="61" t="s">
         <v>406</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>407</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>408</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>409</v>
       </c>
       <c r="G5" s="62" t="s">
         <v>180</v>
@@ -9188,19 +9216,19 @@
         <v>111</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K5" s="61" t="s">
+        <v>403</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>404</v>
+      </c>
+      <c r="M5" s="61" t="s">
+        <v>405</v>
+      </c>
+      <c r="N5" s="61" t="s">
         <v>406</v>
-      </c>
-      <c r="L5" s="61" t="s">
-        <v>407</v>
-      </c>
-      <c r="M5" s="61" t="s">
-        <v>408</v>
-      </c>
-      <c r="N5" s="61" t="s">
-        <v>409</v>
       </c>
       <c r="O5" s="62" t="s">
         <v>180</v>
@@ -11252,12 +11280,12 @@
       <c r="XER5"/>
       <c r="XEZ5"/>
     </row>
-    <row r="6" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A6" s="63" t="s">
         <v>230</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -11268,7 +11296,7 @@
         <v>230</v>
       </c>
       <c r="J6" s="64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
@@ -11276,7 +11304,7 @@
       <c r="N6" s="42"/>
       <c r="O6" s="65"/>
     </row>
-    <row r="7" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A7" s="63" t="s">
         <v>259</v>
       </c>
@@ -11302,7 +11330,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A8" s="63" t="s">
         <v>273</v>
       </c>
@@ -11326,7 +11354,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A9" s="63" t="s">
         <v>265</v>
       </c>
@@ -11356,7 +11384,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A10" s="63" t="s">
         <v>266</v>
       </c>
@@ -11380,9 +11408,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A11" s="63" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="42"/>
@@ -11393,7 +11421,7 @@
         <v>241</v>
       </c>
       <c r="I11" s="63" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J11" s="43"/>
       <c r="K11" s="42"/>
@@ -11404,7 +11432,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75" thickBot="1">
       <c r="A12" s="67" t="s">
         <v>272</v>
       </c>
@@ -11428,7 +11456,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75" thickBot="1">
       <c r="A13" s="55"/>
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
@@ -11444,24 +11472,24 @@
       <c r="N13" s="55"/>
       <c r="O13" s="55"/>
     </row>
-    <row r="14" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="16.5" thickBot="1">
       <c r="A14" s="60" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C14" s="61" t="s">
+        <v>403</v>
+      </c>
+      <c r="D14" s="61" t="s">
+        <v>404</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>405</v>
+      </c>
+      <c r="F14" s="61" t="s">
         <v>406</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>407</v>
-      </c>
-      <c r="E14" s="61" t="s">
-        <v>408</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>409</v>
       </c>
       <c r="G14" s="62" t="s">
         <v>180</v>
@@ -11474,7 +11502,7 @@
       <c r="N14" s="55"/>
       <c r="O14" s="55"/>
     </row>
-    <row r="15" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75">
       <c r="A15" s="63" t="s">
         <v>230</v>
       </c>
@@ -11490,25 +11518,25 @@
         <v>112</v>
       </c>
       <c r="J15" s="61" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K15" s="61" t="s">
+        <v>403</v>
+      </c>
+      <c r="L15" s="61" t="s">
+        <v>404</v>
+      </c>
+      <c r="M15" s="61" t="s">
+        <v>405</v>
+      </c>
+      <c r="N15" s="61" t="s">
         <v>406</v>
-      </c>
-      <c r="L15" s="61" t="s">
-        <v>407</v>
-      </c>
-      <c r="M15" s="61" t="s">
-        <v>408</v>
-      </c>
-      <c r="N15" s="61" t="s">
-        <v>409</v>
       </c>
       <c r="O15" s="62" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
       <c r="A16" s="63" t="s">
         <v>259</v>
       </c>
@@ -11524,7 +11552,7 @@
         <v>230</v>
       </c>
       <c r="J16" s="64" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K16" s="42"/>
       <c r="L16" s="42"/>
@@ -11532,9 +11560,9 @@
       <c r="N16" s="42"/>
       <c r="O16" s="65"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" s="63" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B17" s="43">
         <v>27</v>
@@ -11560,9 +11588,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" s="63" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B18" s="43"/>
       <c r="C18" s="42"/>
@@ -11573,7 +11601,7 @@
         <v>239</v>
       </c>
       <c r="I18" s="63" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J18" s="43"/>
       <c r="K18" s="42"/>
@@ -11584,9 +11612,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" s="63" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="42" t="s">
@@ -11612,9 +11640,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" s="63" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B20" s="43"/>
       <c r="C20" s="42"/>
@@ -11625,7 +11653,7 @@
         <v>239</v>
       </c>
       <c r="I20" s="63" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J20" s="43"/>
       <c r="K20" s="42"/>
@@ -11636,9 +11664,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" thickBot="1">
       <c r="A21" s="63" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="42" t="s">
@@ -11662,9 +11690,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="63" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B22" s="43"/>
       <c r="C22" s="42"/>
@@ -11682,9 +11710,9 @@
       <c r="N22" s="55"/>
       <c r="O22" s="55"/>
     </row>
-    <row r="23" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" thickBot="1">
       <c r="A23" s="63" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B23" s="43"/>
       <c r="C23" s="42" t="s">
@@ -11704,9 +11732,9 @@
       <c r="N23" s="55"/>
       <c r="O23" s="55"/>
     </row>
-    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15.75">
       <c r="A24" s="63" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B24" s="43"/>
       <c r="C24" s="42"/>
@@ -11720,25 +11748,25 @@
         <v>113</v>
       </c>
       <c r="J24" s="61" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K24" s="61" t="s">
+        <v>403</v>
+      </c>
+      <c r="L24" s="61" t="s">
+        <v>404</v>
+      </c>
+      <c r="M24" s="61" t="s">
+        <v>405</v>
+      </c>
+      <c r="N24" s="61" t="s">
         <v>406</v>
-      </c>
-      <c r="L24" s="61" t="s">
-        <v>407</v>
-      </c>
-      <c r="M24" s="61" t="s">
-        <v>408</v>
-      </c>
-      <c r="N24" s="61" t="s">
-        <v>409</v>
       </c>
       <c r="O24" s="62" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" s="63" t="s">
         <v>263</v>
       </c>
@@ -11764,7 +11792,7 @@
       <c r="N25" s="42"/>
       <c r="O25" s="65"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" s="63" t="s">
         <v>264</v>
       </c>
@@ -11788,9 +11816,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" s="63" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B27" s="43"/>
       <c r="C27" s="42"/>
@@ -11814,7 +11842,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" thickBot="1">
       <c r="A28" s="67" t="s">
         <v>272</v>
       </c>
@@ -11838,7 +11866,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="I29" s="63" t="s">
         <v>268</v>
       </c>
@@ -11853,7 +11881,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="I30" s="63" t="s">
         <v>269</v>
       </c>
@@ -11868,7 +11896,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="I31" s="63" t="s">
         <v>270</v>
       </c>
@@ -11883,9 +11911,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="I32" s="63" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J32" s="43"/>
       <c r="K32" s="42"/>
@@ -11896,7 +11924,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="9:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:15" ht="15.75" thickBot="1">
       <c r="I33" s="67" t="s">
         <v>272</v>
       </c>
@@ -11909,7 +11937,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:15">
       <c r="I34" s="55"/>
       <c r="J34" s="55"/>
       <c r="K34" s="55"/>
@@ -11918,7 +11946,7 @@
       <c r="N34" s="55"/>
       <c r="O34" s="55"/>
     </row>
-    <row r="35" spans="9:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:15" ht="15.75" thickBot="1">
       <c r="I35" s="55"/>
       <c r="J35" s="55"/>
       <c r="K35" s="55"/>
@@ -11927,30 +11955,30 @@
       <c r="N35" s="55"/>
       <c r="O35" s="55"/>
     </row>
-    <row r="36" spans="9:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:15" ht="15.75">
       <c r="I36" s="60" t="s">
         <v>115</v>
       </c>
       <c r="J36" s="61" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K36" s="61" t="s">
+        <v>403</v>
+      </c>
+      <c r="L36" s="61" t="s">
+        <v>404</v>
+      </c>
+      <c r="M36" s="61" t="s">
+        <v>405</v>
+      </c>
+      <c r="N36" s="61" t="s">
         <v>406</v>
-      </c>
-      <c r="L36" s="61" t="s">
-        <v>407</v>
-      </c>
-      <c r="M36" s="61" t="s">
-        <v>408</v>
-      </c>
-      <c r="N36" s="61" t="s">
-        <v>409</v>
       </c>
       <c r="O36" s="62" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:15">
       <c r="I37" s="63" t="s">
         <v>230</v>
       </c>
@@ -11963,7 +11991,7 @@
       <c r="N37" s="42"/>
       <c r="O37" s="65"/>
     </row>
-    <row r="38" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:15">
       <c r="I38" s="63" t="s">
         <v>259</v>
       </c>
@@ -11976,9 +12004,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="9:15">
       <c r="I39" s="63" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="J39" s="43"/>
       <c r="K39" s="42" t="s">
@@ -11991,9 +12019,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="40" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="9:15">
       <c r="I40" s="63" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="J40" s="43"/>
       <c r="K40" s="42"/>
@@ -12004,9 +12032,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="9:15">
       <c r="I41" s="63" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J41" s="43"/>
       <c r="K41" s="42" t="s">
@@ -12019,9 +12047,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="42" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="9:15">
       <c r="I42" s="63" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J42" s="43"/>
       <c r="K42" s="42"/>
@@ -12032,9 +12060,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="43" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="9:15">
       <c r="I43" s="63" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J43" s="43"/>
       <c r="K43" s="42" t="s">
@@ -12047,9 +12075,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="9:15">
       <c r="I44" s="63" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J44" s="43"/>
       <c r="K44" s="42"/>
@@ -12060,9 +12088,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="9:15">
       <c r="I45" s="63" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J45" s="43"/>
       <c r="K45" s="42" t="s">
@@ -12075,9 +12103,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="9:15">
       <c r="I46" s="63" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="J46" s="43"/>
       <c r="K46" s="42"/>
@@ -12088,7 +12116,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="9:15">
       <c r="I47" s="63" t="s">
         <v>263</v>
       </c>
@@ -12103,7 +12131,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="48" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="9:15">
       <c r="I48" s="63" t="s">
         <v>264</v>
       </c>
@@ -12116,9 +12144,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15">
       <c r="I49" s="63" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J49" s="43"/>
       <c r="K49" s="42"/>
@@ -12129,7 +12157,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="15.75" thickBot="1">
       <c r="I50" s="67" t="s">
         <v>272</v>
       </c>
@@ -12142,7 +12170,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="15.75" thickBot="1">
       <c r="I51" s="55"/>
       <c r="J51" s="55"/>
       <c r="K51" s="55"/>
@@ -12151,30 +12179,30 @@
       <c r="N51" s="55"/>
       <c r="O51" s="55"/>
     </row>
-    <row r="52" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="15.75">
       <c r="I52" s="60" t="s">
         <v>117</v>
       </c>
       <c r="J52" s="61" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K52" s="61" t="s">
+        <v>403</v>
+      </c>
+      <c r="L52" s="61" t="s">
+        <v>404</v>
+      </c>
+      <c r="M52" s="61" t="s">
+        <v>405</v>
+      </c>
+      <c r="N52" s="61" t="s">
         <v>406</v>
-      </c>
-      <c r="L52" s="61" t="s">
-        <v>407</v>
-      </c>
-      <c r="M52" s="61" t="s">
-        <v>408</v>
-      </c>
-      <c r="N52" s="61" t="s">
-        <v>409</v>
       </c>
       <c r="O52" s="62" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15">
       <c r="I53" s="63" t="s">
         <v>230</v>
       </c>
@@ -12187,7 +12215,7 @@
       <c r="N53" s="42"/>
       <c r="O53" s="65"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15">
       <c r="I54" s="63" t="s">
         <v>259</v>
       </c>
@@ -12200,7 +12228,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15">
       <c r="I55" s="63" t="s">
         <v>260</v>
       </c>
@@ -12215,9 +12243,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15">
       <c r="I56" s="63" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J56" s="43"/>
       <c r="K56" s="42"/>
@@ -12228,7 +12256,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="15.75" thickBot="1">
       <c r="I57" s="67" t="s">
         <v>272</v>
       </c>
@@ -12241,7 +12269,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -12251,7 +12279,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -12260,7 +12288,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -12270,7 +12298,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="26"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -12280,7 +12308,7 @@
       <c r="G64"/>
       <c r="H64" s="28"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -12290,7 +12318,7 @@
       <c r="G65" s="28"/>
       <c r="H65" s="8"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15">
       <c r="A66" s="2" t="s">
         <v>228</v>
       </c>
@@ -12304,7 +12332,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -12313,7 +12341,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -12322,7 +12350,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -12331,7 +12359,7 @@
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -12348,7 +12376,7 @@
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -12364,7 +12392,7 @@
       <c r="N71"/>
       <c r="O71"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -12380,7 +12408,7 @@
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -12396,7 +12424,7 @@
       <c r="N73"/>
       <c r="O73"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -12413,7 +12441,7 @@
       <c r="N74"/>
       <c r="O74"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -12423,7 +12451,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -12432,7 +12460,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -12441,7 +12469,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -12451,7 +12479,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -12461,7 +12489,7 @@
       <c r="G79" s="28"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -12471,7 +12499,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -12481,7 +12509,7 @@
       <c r="G81" s="8"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -12491,7 +12519,7 @@
       <c r="G82" s="8"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -12508,7 +12536,7 @@
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -12525,7 +12553,7 @@
       <c r="N84"/>
       <c r="O84"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -12541,7 +12569,7 @@
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -12558,7 +12586,7 @@
       <c r="N86"/>
       <c r="O86"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -12575,7 +12603,7 @@
       <c r="N87"/>
       <c r="O87"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -12584,7 +12612,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -12593,7 +12621,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -12602,7 +12630,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -12612,7 +12640,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -12621,7 +12649,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -12630,7 +12658,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -12639,7 +12667,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -12656,7 +12684,7 @@
       <c r="N95" s="8"/>
       <c r="O95" s="8"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -12673,7 +12701,7 @@
       <c r="N96"/>
       <c r="O96"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -12689,7 +12717,7 @@
       <c r="N97" s="8"/>
       <c r="O97" s="8"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -12705,7 +12733,7 @@
       <c r="N98"/>
       <c r="O98"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -12722,7 +12750,7 @@
       <c r="N99"/>
       <c r="O99"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -12732,7 +12760,7 @@
       <c r="G100" s="8"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -12742,7 +12770,7 @@
       <c r="G101" s="8"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -12752,7 +12780,7 @@
       <c r="G102" s="8"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -12761,7 +12789,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -12770,7 +12798,7 @@
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -12779,7 +12807,7 @@
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15">
       <c r="A106" s="8"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -12789,7 +12817,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15">
       <c r="A107" s="8"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -12799,7 +12827,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15">
       <c r="A108" s="8"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -12809,7 +12837,7 @@
       <c r="G108"/>
       <c r="H108" s="8"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15">
       <c r="A109" s="8"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -12819,7 +12847,7 @@
       <c r="G109"/>
       <c r="H109" s="8"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15">
       <c r="A110" s="8"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -12829,7 +12857,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15">
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -12837,7 +12865,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
     </row>
-    <row r="118" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="9:15">
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
@@ -12846,7 +12874,7 @@
       <c r="N118" s="8"/>
       <c r="O118" s="8"/>
     </row>
-    <row r="119" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="9:15">
       <c r="I119"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
@@ -12855,7 +12883,7 @@
       <c r="N119"/>
       <c r="O119"/>
     </row>
-    <row r="120" spans="9:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="9:15">
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>

--- a/db_feed/DPPDTT/Sample_Templates/Sample 1/Sample_1.xlsx
+++ b/db_feed/DPPDTT/Sample_Templates/Sample 1/Sample_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliu319\Documents\GitHub\ofet-db\db_feed\DPPDTT\Sample_Templates\Sample 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulvenkatesh/Desktop/Github/ofet-db/db_feed/DPPDTT/Sample_Templates/Sample 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BD905B-3602-469D-9722-DDC06C041495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3806D6AE-33D2-5E47-869B-C9AEED4CF1E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
+    <workbookView xWindow="-1580" yWindow="1100" windowWidth="25600" windowHeight="14900" activeTab="8" xr2:uid="{F8B411A1-6901-4B9B-966C-09D3D94CB0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Origin" sheetId="9" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="416">
   <si>
     <t>UNIT</t>
   </si>
@@ -1083,9 +1083,6 @@
     <t>Solvent 1:</t>
   </si>
   <si>
-    <t>Solvent 2: Copy and paste another solvent box here if a second solvent was used</t>
-  </si>
-  <si>
     <t>Polymer 1: Usually the polymer semiconductor</t>
   </si>
   <si>
@@ -1478,7 +1475,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2107,7 +2104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2404,9 +2401,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2458,6 +2452,27 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2766,7 +2781,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2777,21 +2792,21 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="75.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="75.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2804,23 +2819,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A2" s="127" t="s">
+    <row r="2" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="126" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="127"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="106" t="s">
         <v>277</v>
       </c>
@@ -2829,7 +2844,7 @@
       <c r="D4" s="95"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="107" t="s">
         <v>156</v>
       </c>
@@ -2844,7 +2859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="107" t="s">
         <v>157</v>
       </c>
@@ -2856,7 +2871,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="107" t="s">
         <v>158</v>
       </c>
@@ -2868,13 +2883,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="107"/>
       <c r="B8" s="99"/>
       <c r="C8" s="99"/>
       <c r="D8" s="99"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="106" t="s">
         <v>160</v>
       </c>
@@ -2882,9 +2897,9 @@
       <c r="C9" s="99"/>
       <c r="D9" s="99"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="107" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B10" s="80" t="s">
         <v>163</v>
@@ -2892,13 +2907,13 @@
       <c r="C10" s="101"/>
       <c r="D10" s="101"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="107"/>
       <c r="B11" s="73"/>
       <c r="C11" s="73"/>
       <c r="D11" s="73"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="108" t="s">
         <v>37</v>
       </c>
@@ -2907,7 +2922,7 @@
       <c r="D12" s="55"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="109" t="s">
         <v>38</v>
       </c>
@@ -2916,9 +2931,9 @@
       <c r="D13" s="73"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="110" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B14" s="96"/>
       <c r="C14" s="102"/>
@@ -2929,9 +2944,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="111" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B15" s="96"/>
       <c r="C15" s="102"/>
@@ -2939,12 +2954,12 @@
         <v>241</v>
       </c>
       <c r="E15" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="111" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B16" s="96"/>
       <c r="C16" s="102"/>
@@ -2952,17 +2967,17 @@
         <v>241</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="111"/>
       <c r="B17" s="55"/>
       <c r="C17" s="55"/>
       <c r="D17" s="55"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="108" t="s">
         <v>161</v>
       </c>
@@ -2971,7 +2986,7 @@
       <c r="D18" s="55"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="106" t="s">
         <v>73</v>
       </c>
@@ -2979,12 +2994,12 @@
       <c r="C19" s="73"/>
       <c r="D19" s="73"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="107" t="s">
-        <v>402</v>
-      </c>
-      <c r="B20" s="121" t="s">
-        <v>408</v>
+        <v>401</v>
+      </c>
+      <c r="B20" s="120" t="s">
+        <v>407</v>
       </c>
       <c r="C20" s="101"/>
       <c r="D20" s="101" t="s">
@@ -2994,13 +3009,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="112"/>
       <c r="B21" s="73"/>
       <c r="C21" s="73"/>
       <c r="D21" s="73"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="106" t="s">
         <v>74</v>
       </c>
@@ -3008,7 +3023,7 @@
       <c r="C22" s="73"/>
       <c r="D22" s="73"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="113" t="s">
         <v>159</v>
       </c>
@@ -3016,13 +3031,13 @@
       <c r="C23" s="103"/>
       <c r="D23" s="103"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="104"/>
       <c r="B24" s="104"/>
       <c r="C24" s="104"/>
       <c r="D24" s="104"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
         <v>70</v>
       </c>
@@ -3032,7 +3047,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
         <v>71</v>
       </c>
@@ -3042,7 +3057,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
         <v>22</v>
       </c>
@@ -3052,7 +3067,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
         <v>23</v>
       </c>
@@ -3065,7 +3080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
         <v>25</v>
       </c>
@@ -3075,7 +3090,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="42" t="s">
         <v>26</v>
       </c>
@@ -3085,7 +3100,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="42" t="s">
         <v>27</v>
       </c>
@@ -3095,7 +3110,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="42" t="s">
         <v>28</v>
       </c>
@@ -3105,7 +3120,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="42" t="s">
         <v>29</v>
       </c>
@@ -3115,7 +3130,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="42" t="s">
         <v>30</v>
       </c>
@@ -3125,7 +3140,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="42" t="s">
         <v>31</v>
       </c>
@@ -3135,7 +3150,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="42" t="s">
         <v>32</v>
       </c>
@@ -3145,7 +3160,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="42" t="s">
         <v>33</v>
       </c>
@@ -3158,7 +3173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="42" t="s">
         <v>35</v>
       </c>
@@ -3171,7 +3186,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75">
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
     </row>
   </sheetData>
@@ -3338,78 +3353,78 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.85546875" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.83203125" customWidth="1"/>
+    <col min="9" max="9" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="14"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="15" customFormat="1">
+    <row r="15" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>17</v>
@@ -3418,12 +3433,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75">
+    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>80</v>
       </c>
@@ -3446,7 +3461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75">
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>47</v>
       </c>
@@ -3469,7 +3484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75">
+    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>81</v>
       </c>
@@ -3492,9 +3507,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75">
+    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B20">
         <v>6895</v>
@@ -3503,16 +3518,16 @@
         <v>214.4</v>
       </c>
       <c r="D20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>79</v>
       </c>
@@ -3523,18 +3538,18 @@
         <v>110.6</v>
       </c>
       <c r="D21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G21">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B22">
         <v>7809</v>
@@ -3546,13 +3561,13 @@
         <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75">
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>226</v>
       </c>
@@ -3572,9 +3587,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75">
+    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B24">
         <v>3776</v>
@@ -3592,9 +3607,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75">
+    <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B25">
         <v>180</v>
@@ -3612,12 +3627,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>8</v>
       </c>
@@ -3649,9 +3664,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
@@ -3660,21 +3675,21 @@
         <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G31" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
@@ -3683,28 +3698,28 @@
         <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F32" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G32" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J32">
         <v>7372</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -3712,22 +3727,22 @@
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F33" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J33">
         <v>76261</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75">
+    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>59</v>
       </c>
@@ -3735,19 +3750,19 @@
         <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J34">
         <v>6399</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75">
+    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>60</v>
       </c>
@@ -3756,16 +3771,16 @@
       </c>
       <c r="G35" s="17"/>
       <c r="H35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J35">
         <v>8157</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75">
+    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>61</v>
       </c>
@@ -3774,34 +3789,34 @@
       </c>
       <c r="G36" s="17"/>
       <c r="H36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J36">
         <v>21354</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75">
+    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G37" s="17"/>
       <c r="H37" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J37">
         <v>74057</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75">
+    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>63</v>
       </c>
@@ -3810,35 +3825,35 @@
       </c>
       <c r="G38" s="17"/>
       <c r="H38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J38">
         <v>21932446</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75">
+    <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="G39" s="17"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75">
+    <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75">
+    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="H41" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75">
+    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="G42" s="17"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>10</v>
       </c>
@@ -3864,12 +3879,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F49" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>130</v>
       </c>
@@ -3877,10 +3892,10 @@
         <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E50" t="s">
         <v>120</v>
@@ -3889,13 +3904,13 @@
         <v>95</v>
       </c>
       <c r="G50" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H50" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>131</v>
       </c>
@@ -3903,10 +3918,10 @@
         <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E51" t="s">
         <v>13</v>
@@ -3915,21 +3930,21 @@
         <v>124</v>
       </c>
       <c r="G51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H51" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>66</v>
       </c>
       <c r="C52" t="s">
+        <v>321</v>
+      </c>
+      <c r="D52" t="s">
         <v>322</v>
-      </c>
-      <c r="D52" t="s">
-        <v>323</v>
       </c>
       <c r="E52" t="s">
         <v>121</v>
@@ -3938,23 +3953,23 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D53" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
         <v>40</v>
       </c>
@@ -3977,15 +3992,15 @@
         <v>251</v>
       </c>
       <c r="H57" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B59" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C59" t="s">
         <v>135</v>
@@ -4003,15 +4018,15 @@
         <v>231</v>
       </c>
       <c r="H59" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B60" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C60" t="s">
         <v>136</v>
@@ -4029,15 +4044,15 @@
         <v>233</v>
       </c>
       <c r="H60" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B61" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C61" t="s">
         <v>137</v>
@@ -4046,9 +4061,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E62" t="s">
         <v>235</v>
@@ -4064,20 +4079,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40DAF9E-DFED-405D-ADE1-B4B8917B7A0A}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A35" zoomScale="111" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" customWidth="1"/>
     <col min="5" max="5" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>147</v>
       </c>
@@ -4092,36 +4107,36 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="104.25" customHeight="1">
-      <c r="A2" s="128" t="s">
+    <row r="2" spans="1:5" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="90" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="118" t="s">
         <v>299</v>
-      </c>
-      <c r="B4" s="119" t="s">
-        <v>300</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
         <v>281</v>
       </c>
-      <c r="B5" s="118" t="s">
-        <v>298</v>
+      <c r="B5" s="117" t="s">
+        <v>297</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="89" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B6" s="45">
         <v>5</v>
@@ -4134,13 +4149,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="42"/>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="106" t="s">
         <v>146</v>
       </c>
@@ -4148,7 +4163,7 @@
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1">
+    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="106" t="s">
         <v>294</v>
       </c>
@@ -4156,21 +4171,21 @@
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
         <v>291</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="114" t="s">
         <v>86</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="63" t="s">
         <v>281</v>
       </c>
@@ -4180,11 +4195,11 @@
       <c r="C11" s="40"/>
       <c r="D11" s="37"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="63" t="s">
-        <v>342</v>
-      </c>
-      <c r="B12" s="116" t="s">
+        <v>341</v>
+      </c>
+      <c r="B12" s="115" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="40"/>
@@ -4193,7 +4208,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="63" t="s">
         <v>293</v>
       </c>
@@ -4206,9 +4221,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="63" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B14" s="45">
         <v>0.5</v>
@@ -4216,104 +4231,74 @@
       <c r="C14" s="40"/>
       <c r="D14" s="38"/>
       <c r="E14" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" thickBot="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="77" t="s">
         <v>173</v>
       </c>
       <c r="B15" s="49"/>
-      <c r="C15" s="117"/>
+      <c r="C15" s="116"/>
       <c r="D15" s="39" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="42"/>
       <c r="B16" s="42"/>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
     </row>
-    <row r="17" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A17" s="114" t="s">
-        <v>295</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="75" t="s">
-        <v>291</v>
-      </c>
-      <c r="B18" s="115" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="115" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="63" t="s">
-        <v>281</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="37"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="63" t="s">
-        <v>342</v>
-      </c>
-      <c r="B20" s="116" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="38"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="63" t="s">
-        <v>293</v>
-      </c>
-      <c r="B21" s="45">
-        <v>7964</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="38"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="63" t="s">
-        <v>318</v>
-      </c>
-      <c r="B22" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="38"/>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" thickBot="1">
-      <c r="A23" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="39" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="132"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="121"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="123"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="136"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="123"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="123"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="123"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="125"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="135"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="42"/>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
       <c r="D24" s="42"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75">
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="106" t="s">
         <v>148</v>
       </c>
@@ -4321,29 +4306,29 @@
       <c r="C25" s="42"/>
       <c r="D25" s="42"/>
     </row>
-    <row r="26" spans="1:4" ht="16.5" thickBot="1">
+    <row r="26" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="106" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B26" s="110"/>
       <c r="C26" s="42"/>
       <c r="D26" s="42"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75">
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="75" t="s">
         <v>280</v>
       </c>
-      <c r="B27" s="115" t="s">
+      <c r="B27" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="115" t="s">
+      <c r="C27" s="114" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="36" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="63" t="s">
         <v>281</v>
       </c>
@@ -4353,19 +4338,19 @@
       <c r="C28" s="40"/>
       <c r="D28" s="37"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="63" t="s">
-        <v>359</v>
-      </c>
-      <c r="B29" s="116" t="s">
+        <v>358</v>
+      </c>
+      <c r="B29" s="115" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="40"/>
       <c r="D29" s="37"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="63" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B30" s="45" t="str">
         <f>_xlfn.XLOOKUP('Solution Makeup'!B29,'Dropdown Items'!$D$16:$D$25,'Dropdown Items'!$E$16:$E$25)</f>
@@ -4374,31 +4359,31 @@
       <c r="C30" s="40"/>
       <c r="D30" s="37"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B31" s="45">
         <v>143</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D31" s="38"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="63" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B32" s="45">
         <v>292</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D32" s="38"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="63" t="s">
         <v>283</v>
       </c>
@@ -4408,9 +4393,9 @@
       <c r="C33" s="40"/>
       <c r="D33" s="38"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B34" s="45">
         <v>1</v>
@@ -4418,16 +4403,16 @@
       <c r="C34" s="40"/>
       <c r="D34" s="38"/>
       <c r="E34" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="63"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
       <c r="D35" s="38"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="92" t="s">
         <v>284</v>
       </c>
@@ -4435,31 +4420,31 @@
       <c r="C36" s="40"/>
       <c r="D36" s="38"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="63" t="s">
         <v>285</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C37" s="40"/>
       <c r="D37" s="38" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="63" t="s">
         <v>286</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C38" s="40"/>
       <c r="D38" s="38" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="63" t="s">
         <v>287</v>
       </c>
@@ -4469,7 +4454,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="93" t="s">
         <v>288</v>
       </c>
@@ -4479,7 +4464,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="93" t="s">
         <v>289</v>
       </c>
@@ -4489,129 +4474,129 @@
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1">
+    <row r="42" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="94" t="s">
         <v>290</v>
       </c>
       <c r="B42" s="49"/>
-      <c r="C42" s="117"/>
+      <c r="C42" s="116"/>
       <c r="D42" s="39" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="42"/>
       <c r="B43" s="42"/>
       <c r="C43" s="42"/>
       <c r="D43" s="42"/>
     </row>
-    <row r="44" spans="1:5" ht="16.5" thickBot="1">
+    <row r="44" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="106" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B44" s="42"/>
       <c r="C44" s="42"/>
       <c r="D44" s="42"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75">
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="75"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="115"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
       <c r="D45" s="36"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="63"/>
       <c r="B46" s="35"/>
       <c r="C46" s="40"/>
       <c r="D46" s="37"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="63"/>
-      <c r="B47" s="116" t="s">
+      <c r="B47" s="115" t="s">
         <v>78</v>
       </c>
       <c r="C47" s="40"/>
       <c r="D47" s="37"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="63"/>
       <c r="B48" s="45"/>
       <c r="C48" s="40"/>
       <c r="D48" s="37"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="63"/>
       <c r="B49" s="45"/>
       <c r="C49" s="40"/>
       <c r="D49" s="38"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="63"/>
       <c r="B50" s="45"/>
       <c r="C50" s="40"/>
       <c r="D50" s="38"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="63"/>
       <c r="B51" s="45"/>
       <c r="C51" s="40"/>
       <c r="D51" s="38"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="63"/>
       <c r="B52" s="45"/>
       <c r="C52" s="40"/>
       <c r="D52" s="38"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="63"/>
       <c r="B53" s="40"/>
       <c r="C53" s="40"/>
       <c r="D53" s="38"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="92"/>
       <c r="B54" s="40"/>
       <c r="C54" s="40"/>
       <c r="D54" s="38"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="63"/>
       <c r="B55" s="45"/>
       <c r="C55" s="40"/>
       <c r="D55" s="38"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="63"/>
       <c r="B56" s="45"/>
       <c r="C56" s="40"/>
       <c r="D56" s="38"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="63"/>
       <c r="B57" s="45"/>
       <c r="C57" s="40"/>
       <c r="D57" s="38"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="93"/>
       <c r="B58" s="45"/>
       <c r="C58" s="40"/>
       <c r="D58" s="38"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="93"/>
       <c r="B59" s="45"/>
       <c r="C59" s="40"/>
       <c r="D59" s="38"/>
     </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1">
+    <row r="60" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="94"/>
       <c r="B60" s="49"/>
-      <c r="C60" s="117"/>
+      <c r="C60" s="116"/>
       <c r="D60" s="39"/>
     </row>
-    <row r="94" spans="1:2" ht="26.25">
+    <row r="94" spans="1:2" ht="26" x14ac:dyDescent="0.3">
       <c r="A94" s="56" t="s">
         <v>228</v>
       </c>
@@ -4653,24 +4638,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6BB566-6734-43D2-B721-97B73307DE8D}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A2" zoomScale="112" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53:J59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>89</v>
       </c>
@@ -4681,19 +4666,19 @@
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="21"/>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="132"/>
-    </row>
-    <row r="2" spans="1:10" ht="130.35" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="131"/>
+    </row>
+    <row r="2" spans="1:10" ht="130.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="G2" s="3"/>
@@ -4701,7 +4686,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1">
+    <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4712,7 +4697,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" thickBot="1">
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="75" t="s">
         <v>179</v>
       </c>
@@ -4732,7 +4717,7 @@
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
         <v>164</v>
       </c>
@@ -4756,7 +4741,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="63" t="s">
         <v>172</v>
       </c>
@@ -4776,12 +4761,12 @@
       <c r="I6" s="42"/>
       <c r="J6" s="65"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="63" t="s">
         <v>171</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="66" t="s">
@@ -4796,9 +4781,9 @@
       <c r="I7" s="42"/>
       <c r="J7" s="65"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="63" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B8" s="47">
         <v>250</v>
@@ -4820,7 +4805,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
         <v>174</v>
       </c>
@@ -4836,15 +4821,15 @@
       <c r="E9" s="55"/>
       <c r="F9" s="42"/>
       <c r="G9" s="63" t="s">
-        <v>342</v>
-      </c>
-      <c r="H9" s="116"/>
+        <v>341</v>
+      </c>
+      <c r="H9" s="115"/>
       <c r="I9" s="42"/>
       <c r="J9" s="66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="42" t="s">
         <v>175</v>
       </c>
@@ -4868,12 +4853,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1">
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
         <v>173</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C11" s="78"/>
       <c r="D11" s="69" t="s">
@@ -4882,7 +4867,7 @@
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="63" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="42"/>
@@ -4890,7 +4875,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1">
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
@@ -4906,19 +4891,11 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A13" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>180</v>
-      </c>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="121"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
       <c r="G13" s="79"/>
@@ -4926,15 +4903,11 @@
       <c r="I13" s="55"/>
       <c r="J13" s="42"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75">
-      <c r="A14" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="65"/>
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="123"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="124"/>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
       <c r="G14" s="75" t="s">
@@ -4950,13 +4923,11 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="65"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="123"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="124"/>
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
       <c r="G15" s="63" t="s">
@@ -4968,15 +4939,11 @@
       <c r="I15" s="42"/>
       <c r="J15" s="65"/>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="66" t="s">
-        <v>274</v>
-      </c>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="123"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
       <c r="E16" s="42"/>
       <c r="F16" s="42"/>
       <c r="G16" s="63" t="s">
@@ -4986,17 +4953,11 @@
       <c r="I16" s="42"/>
       <c r="J16" s="66"/>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="66" t="s">
-        <v>274</v>
-      </c>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="123"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
       <c r="G17" s="63" t="s">
@@ -5008,21 +4969,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>274</v>
-      </c>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="123"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
       <c r="G18" s="63" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H18" s="47"/>
       <c r="I18" s="42" t="s">
@@ -5032,15 +4987,11 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A19" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="69" t="s">
-        <v>241</v>
-      </c>
+    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="125"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="123"/>
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
       <c r="G19" s="63" t="s">
@@ -5054,11 +5005,11 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75">
-      <c r="A20" s="126"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="124"/>
+    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="125"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="123"/>
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
       <c r="G20" s="63" t="s">
@@ -5066,13 +5017,13 @@
       </c>
       <c r="H20" s="47"/>
       <c r="I20" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J20" s="66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.5" thickBot="1">
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
@@ -5088,7 +5039,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
@@ -5100,7 +5051,7 @@
       <c r="I22" s="42"/>
       <c r="J22" s="55"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75">
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="42"/>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -5120,7 +5071,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="42"/>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
@@ -5136,7 +5087,7 @@
       <c r="I24" s="42"/>
       <c r="J24" s="65"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="42"/>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
@@ -5150,7 +5101,7 @@
       <c r="I25" s="42"/>
       <c r="J25" s="65"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="42"/>
       <c r="B26" s="42"/>
       <c r="C26" s="42"/>
@@ -5166,7 +5117,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="42"/>
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
@@ -5184,7 +5135,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="42"/>
       <c r="B28" s="42"/>
       <c r="C28" s="42"/>
@@ -5200,7 +5151,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="42"/>
       <c r="B29" s="42"/>
       <c r="C29" s="42"/>
@@ -5218,7 +5169,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="42"/>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
@@ -5236,7 +5187,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="42"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
@@ -5244,7 +5195,7 @@
       <c r="E31" s="42"/>
       <c r="F31" s="42"/>
       <c r="G31" s="63" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H31" s="47"/>
       <c r="I31" s="42" t="s">
@@ -5254,7 +5205,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="42"/>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
@@ -5272,7 +5223,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16.5" thickBot="1">
+    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="42"/>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
@@ -5288,7 +5239,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16.5" thickBot="1">
+    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="42"/>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
@@ -5300,7 +5251,7 @@
       <c r="I34" s="42"/>
       <c r="J34" s="55"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75">
+    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="42"/>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
@@ -5320,7 +5271,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="42"/>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
@@ -5336,7 +5287,7 @@
       <c r="I36" s="42"/>
       <c r="J36" s="65"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="42"/>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
@@ -5350,7 +5301,7 @@
       <c r="I37" s="42"/>
       <c r="J37" s="65"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="42"/>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
@@ -5366,7 +5317,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="42"/>
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
@@ -5384,7 +5335,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="42"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
@@ -5402,7 +5353,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16.5" thickBot="1">
+    <row r="41" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="42"/>
       <c r="B41" s="42"/>
       <c r="C41" s="42"/>
@@ -5418,7 +5369,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1">
+    <row r="42" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="42"/>
       <c r="B42" s="42"/>
       <c r="C42" s="42"/>
@@ -5430,7 +5381,7 @@
       <c r="I42" s="87"/>
       <c r="J42" s="87"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75">
+    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="42"/>
       <c r="B43" s="42"/>
       <c r="C43" s="42"/>
@@ -5450,7 +5401,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="42"/>
       <c r="B44" s="42"/>
       <c r="C44" s="42"/>
@@ -5466,7 +5417,7 @@
       <c r="I44" s="42"/>
       <c r="J44" s="65"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="42"/>
       <c r="B45" s="42"/>
       <c r="C45" s="42"/>
@@ -5480,7 +5431,7 @@
       <c r="I45" s="42"/>
       <c r="J45" s="65"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="42"/>
       <c r="B46" s="42"/>
       <c r="C46" s="42"/>
@@ -5496,7 +5447,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="42"/>
       <c r="B47" s="42"/>
       <c r="C47" s="42"/>
@@ -5514,7 +5465,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="42"/>
       <c r="B48" s="42"/>
       <c r="C48" s="42"/>
@@ -5530,7 +5481,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="42"/>
       <c r="B49" s="42"/>
       <c r="C49" s="42"/>
@@ -5548,7 +5499,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="42"/>
       <c r="B50" s="42"/>
       <c r="C50" s="42"/>
@@ -5566,7 +5517,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="16.5" thickBot="1">
+    <row r="51" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G51" s="77" t="s">
         <v>173</v>
       </c>
@@ -5576,7 +5527,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>228</v>
       </c>
@@ -5628,19 +5579,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FF38F2-F6A4-4E96-86E9-D45968350123}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>101</v>
       </c>
@@ -5655,15 +5606,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="88" t="s">
         <v>187</v>
       </c>
@@ -5671,19 +5622,19 @@
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="89" t="s">
         <v>181</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="89" t="s">
         <v>183</v>
       </c>
@@ -5697,7 +5648,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="89" t="s">
         <v>184</v>
       </c>
@@ -5711,37 +5662,37 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="89" t="s">
         <v>185</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C8" s="85"/>
       <c r="D8" s="42" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="89" t="s">
         <v>186</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="42" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="88" t="s">
         <v>188</v>
       </c>
@@ -5749,21 +5700,21 @@
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="89" t="s">
         <v>182</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="42" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="89" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>56</v>
@@ -5773,9 +5724,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="89" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B14" s="43">
         <v>300</v>
@@ -5787,9 +5738,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="89" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B15" s="44"/>
       <c r="C15" s="42"/>
@@ -5797,9 +5748,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="89" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B16" s="43"/>
       <c r="C16" s="42"/>
@@ -5807,13 +5758,13 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="42"/>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="90" t="s">
         <v>149</v>
       </c>
@@ -5821,9 +5772,9 @@
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="89" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B19" s="43">
         <v>11.5</v>
@@ -5835,9 +5786,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="89" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B20" s="43"/>
       <c r="C20" s="89" t="s">
@@ -5847,7 +5798,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="42" t="s">
         <v>189</v>
       </c>
@@ -5857,7 +5808,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="42" t="s">
         <v>190</v>
       </c>
@@ -5867,7 +5818,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="42" t="s">
         <v>191</v>
       </c>
@@ -5877,17 +5828,17 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="42"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D28" s="30"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D31" s="1"/>
     </row>
-    <row r="33" s="1" customFormat="1"/>
-    <row r="34" s="1" customFormat="1"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5940,20 +5891,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA77467B-0896-49AB-8867-B82D0CAEB0D4}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>192</v>
       </c>
@@ -5963,25 +5914,25 @@
         <v>180</v>
       </c>
       <c r="E1" s="33"/>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="132"/>
-    </row>
-    <row r="2" spans="1:10" ht="130.5" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="131"/>
+    </row>
+    <row r="2" spans="1:10" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G3" s="26" t="s">
         <v>94</v>
       </c>
@@ -5989,7 +5940,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="16.5" thickBot="1">
+    <row r="4" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="75" t="s">
         <v>193</v>
       </c>
@@ -6007,7 +5958,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
         <v>164</v>
       </c>
@@ -6029,7 +5980,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="63" t="s">
         <v>172</v>
       </c>
@@ -6047,12 +5998,12 @@
       <c r="I6" s="42"/>
       <c r="J6" s="65"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="63" t="s">
         <v>171</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="66" t="s">
@@ -6065,12 +6016,12 @@
       <c r="I7" s="42"/>
       <c r="J7" s="65"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="63" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="66" t="s">
@@ -6085,7 +6036,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="63" t="s">
         <v>174</v>
       </c>
@@ -6099,7 +6050,7 @@
         <v>274</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H9" s="44" t="s">
         <v>226</v>
@@ -6109,7 +6060,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="63" t="s">
         <v>175</v>
       </c>
@@ -6133,7 +6084,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1">
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
         <v>173</v>
       </c>
@@ -6155,7 +6106,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1">
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G12" s="77" t="s">
         <v>173</v>
       </c>
@@ -6165,7 +6116,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" thickBot="1">
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="75" t="s">
         <v>193</v>
       </c>
@@ -6183,7 +6134,7 @@
       <c r="I13" s="55"/>
       <c r="J13" s="42"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75">
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="63" t="s">
         <v>164</v>
       </c>
@@ -6205,7 +6156,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="63" t="s">
         <v>172</v>
       </c>
@@ -6223,12 +6174,12 @@
       <c r="I15" s="42"/>
       <c r="J15" s="65"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="63" t="s">
         <v>171</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="66" t="s">
@@ -6241,9 +6192,9 @@
       <c r="I16" s="42"/>
       <c r="J16" s="65"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="63" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B17" s="44" t="s">
         <v>226</v>
@@ -6263,7 +6214,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="63" t="s">
         <v>174</v>
       </c>
@@ -6285,7 +6236,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="63" t="s">
         <v>175</v>
       </c>
@@ -6309,7 +6260,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" thickBot="1">
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="77" t="s">
         <v>173</v>
       </c>
@@ -6329,13 +6280,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G21" s="42"/>
       <c r="H21" s="42"/>
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
     </row>
-    <row r="22" spans="1:10" ht="16.5" thickBot="1">
+    <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G22" s="75" t="s">
         <v>198</v>
       </c>
@@ -6349,7 +6300,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75">
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="75" t="s">
         <v>193</v>
       </c>
@@ -6371,7 +6322,7 @@
       <c r="I23" s="42"/>
       <c r="J23" s="65"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="63" t="s">
         <v>164</v>
       </c>
@@ -6387,7 +6338,7 @@
       <c r="I24" s="42"/>
       <c r="J24" s="65"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="63" t="s">
         <v>172</v>
       </c>
@@ -6405,41 +6356,41 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="63" t="s">
         <v>171</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C26" s="42"/>
       <c r="D26" s="66" t="s">
         <v>274</v>
       </c>
       <c r="G26" s="63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H26" s="44" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I26" s="42"/>
       <c r="J26" s="66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="63" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C27" s="42"/>
       <c r="D27" s="66" t="s">
         <v>274</v>
       </c>
       <c r="G27" s="63" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H27" s="47" t="str">
         <f>_xlfn.XLOOKUP(H26,'Dropdown Items'!$H$32:$H$39,'Dropdown Items'!$I$32:$I$39)</f>
@@ -6450,7 +6401,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="63" t="s">
         <v>174</v>
       </c>
@@ -6475,7 +6426,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="63" t="s">
         <v>175</v>
       </c>
@@ -6499,7 +6450,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16.5" thickBot="1">
+    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="77" t="s">
         <v>173</v>
       </c>
@@ -6515,13 +6466,13 @@
       </c>
       <c r="H30" s="47"/>
       <c r="I30" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J30" s="66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" thickBot="1">
+    <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
@@ -6535,7 +6486,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1">
+    <row r="32" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="42"/>
       <c r="B32" s="42"/>
       <c r="C32" s="42"/>
@@ -6545,7 +6496,7 @@
       <c r="I32" s="42"/>
       <c r="J32" s="42"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75">
+    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="75" t="s">
         <v>195</v>
       </c>
@@ -6571,7 +6522,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="63" t="s">
         <v>164</v>
       </c>
@@ -6589,7 +6540,7 @@
       <c r="I34" s="42"/>
       <c r="J34" s="65"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="63" t="s">
         <v>172</v>
       </c>
@@ -6605,7 +6556,7 @@
       <c r="I35" s="42"/>
       <c r="J35" s="65"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="63" t="s">
         <v>175</v>
       </c>
@@ -6627,7 +6578,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="63" t="s">
         <v>197</v>
       </c>
@@ -6649,7 +6600,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="63" t="s">
         <v>170</v>
       </c>
@@ -6671,7 +6622,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16.5" thickBot="1">
+    <row r="39" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="77" t="s">
         <v>173</v>
       </c>
@@ -6689,7 +6640,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="42"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
@@ -6703,7 +6654,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16.5" thickBot="1">
+    <row r="41" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="42"/>
       <c r="B41" s="42"/>
       <c r="C41" s="42"/>
@@ -6717,7 +6668,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75">
+    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="75" t="s">
         <v>198</v>
       </c>
@@ -6731,7 +6682,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="63" t="s">
         <v>164</v>
       </c>
@@ -6741,7 +6692,7 @@
       <c r="C43" s="42"/>
       <c r="D43" s="65"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="63" t="s">
         <v>172</v>
       </c>
@@ -6751,43 +6702,43 @@
       <c r="C44" s="42"/>
       <c r="D44" s="65"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="63" t="s">
         <v>171</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C45" s="42"/>
       <c r="D45" s="66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C46" s="42"/>
       <c r="D46" s="66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="63" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C47" s="42"/>
       <c r="D47" s="66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="63" t="s">
         <v>293</v>
       </c>
@@ -6800,7 +6751,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="63" t="s">
         <v>174</v>
       </c>
@@ -6814,7 +6765,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="63" t="s">
         <v>175</v>
       </c>
@@ -6822,26 +6773,26 @@
         <v>8</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D50" s="66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16.5" thickBot="1">
+    <row r="51" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="77" t="s">
         <v>173</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C51" s="78"/>
       <c r="D51" s="69" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="54" spans="1:4" ht="15.75">
+    <row r="53" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="75" t="s">
         <v>193</v>
       </c>
@@ -6855,7 +6806,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="63" t="s">
         <v>164</v>
       </c>
@@ -6865,7 +6816,7 @@
       <c r="C55" s="42"/>
       <c r="D55" s="65"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="63" t="s">
         <v>172</v>
       </c>
@@ -6875,21 +6826,21 @@
       <c r="C56" s="42"/>
       <c r="D56" s="65"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="63" t="s">
         <v>171</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C57" s="42"/>
       <c r="D57" s="66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="63" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B58" s="44" t="s">
         <v>79</v>
@@ -6899,7 +6850,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="63" t="s">
         <v>174</v>
       </c>
@@ -6913,7 +6864,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="63" t="s">
         <v>175</v>
       </c>
@@ -6927,7 +6878,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16.5" thickBot="1">
+    <row r="61" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="77" t="s">
         <v>173</v>
       </c>
@@ -6939,12 +6890,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -6996,23 +6947,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E323FD3-6C48-44BB-9F06-8E13A7AFDEDD}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D19"/>
+    <sheetView topLeftCell="A2" zoomScale="125" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34:I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>98</v>
       </c>
@@ -7021,26 +6972,26 @@
       <c r="D1" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="130" t="s">
+      <c r="F1" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="132"/>
-    </row>
-    <row r="2" spans="1:10" ht="93" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="131"/>
+    </row>
+    <row r="2" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
       <c r="D2" s="46"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="29"/>
       <c r="F3" s="26" t="s">
         <v>106</v>
@@ -7049,13 +7000,13 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F4" s="28" t="s">
         <v>107</v>
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>109</v>
       </c>
@@ -7070,11 +7021,11 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A6" s="122"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
+    <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
       <c r="F6" s="63" t="s">
         <v>208</v>
       </c>
@@ -7084,7 +7035,7 @@
       <c r="H6" s="42"/>
       <c r="I6" s="65"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75">
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="82" t="s">
         <v>100</v>
       </c>
@@ -7104,7 +7055,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="63" t="s">
         <v>208</v>
       </c>
@@ -7124,12 +7075,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="63" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="65" t="s">
@@ -7146,7 +7097,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="63" t="s">
         <v>215</v>
       </c>
@@ -7154,7 +7105,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D10" s="65" t="s">
         <v>274</v>
@@ -7171,7 +7122,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="63" t="s">
         <v>216</v>
       </c>
@@ -7196,12 +7147,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="63" t="s">
         <v>217</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="65" t="s">
@@ -7216,7 +7167,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1">
+    <row r="13" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
         <v>218</v>
       </c>
@@ -7236,7 +7187,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+    <row r="14" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
         <v>174</v>
       </c>
@@ -7254,7 +7205,7 @@
       <c r="H14" s="42"/>
       <c r="I14" s="55"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75">
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="63" t="s">
         <v>169</v>
       </c>
@@ -7276,9 +7227,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="63" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="42"/>
@@ -7294,7 +7245,7 @@
       <c r="H16" s="42"/>
       <c r="I16" s="65"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="63" t="s">
         <v>219</v>
       </c>
@@ -7314,12 +7265,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="63" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="65" t="s">
@@ -7330,13 +7281,13 @@
       </c>
       <c r="G18" s="47"/>
       <c r="H18" s="42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I18" s="65" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="67" t="s">
         <v>173</v>
       </c>
@@ -7354,7 +7305,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F20" s="63" t="s">
         <v>217</v>
       </c>
@@ -7367,7 +7318,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F21" s="63" t="s">
         <v>218</v>
       </c>
@@ -7379,7 +7330,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F22" s="63" t="s">
         <v>174</v>
       </c>
@@ -7391,7 +7342,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F23" s="63" t="s">
         <v>169</v>
       </c>
@@ -7403,9 +7354,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F24" s="63" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G24" s="47"/>
       <c r="H24" s="42"/>
@@ -7413,7 +7364,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F25" s="63" t="s">
         <v>219</v>
       </c>
@@ -7425,9 +7376,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F26" s="63" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G26" s="44"/>
       <c r="H26" s="42"/>
@@ -7435,7 +7386,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
+    <row r="27" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F27" s="67" t="s">
         <v>173</v>
       </c>
@@ -7445,13 +7396,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16.5" thickBot="1">
+    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F28" s="86"/>
       <c r="G28" s="42"/>
       <c r="H28" s="42"/>
       <c r="I28" s="55"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="F29" s="60" t="s">
         <v>103</v>
       </c>
@@ -7463,7 +7414,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F30" s="63" t="s">
         <v>208</v>
       </c>
@@ -7473,7 +7424,7 @@
       <c r="H30" s="42"/>
       <c r="I30" s="65"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F31" s="63" t="s">
         <v>171</v>
       </c>
@@ -7483,7 +7434,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1">
+    <row r="32" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F32" s="67" t="s">
         <v>219</v>
       </c>
@@ -7495,13 +7446,13 @@
         <v>274</v>
       </c>
     </row>
-    <row r="33" spans="6:10" ht="15.75" thickBot="1">
+    <row r="33" spans="6:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F33" s="55"/>
       <c r="G33" s="87"/>
       <c r="H33" s="87"/>
       <c r="I33" s="87"/>
     </row>
-    <row r="34" spans="6:10" ht="15.75">
+    <row r="34" spans="6:10" ht="16" x14ac:dyDescent="0.2">
       <c r="F34" s="82" t="s">
         <v>223</v>
       </c>
@@ -7516,7 +7467,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="6:10">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F35" s="63" t="s">
         <v>208</v>
       </c>
@@ -7524,7 +7475,7 @@
       <c r="H35" s="42"/>
       <c r="I35" s="65"/>
     </row>
-    <row r="36" spans="6:10">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F36" s="63" t="s">
         <v>171</v>
       </c>
@@ -7534,19 +7485,19 @@
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="6:10">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F37" s="63" t="s">
         <v>215</v>
       </c>
       <c r="G37" s="47"/>
       <c r="H37" s="42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I37" s="65" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="38" spans="6:10">
+    <row r="38" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F38" s="63" t="s">
         <v>174</v>
       </c>
@@ -7558,9 +7509,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="6:10">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F39" s="63" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G39" s="44"/>
       <c r="H39" s="42"/>
@@ -7568,7 +7519,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="40" spans="6:10">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F40" s="63" t="s">
         <v>173</v>
       </c>
@@ -7578,7 +7529,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="41" spans="6:10">
+    <row r="41" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F41" s="63" t="s">
         <v>219</v>
       </c>
@@ -7593,7 +7544,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="6:10">
+    <row r="42" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F42" s="63" t="s">
         <v>275</v>
       </c>
@@ -7603,7 +7554,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="43" spans="6:10">
+    <row r="43" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F43" s="63" t="s">
         <v>276</v>
       </c>
@@ -7613,7 +7564,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="44" spans="6:10">
+    <row r="44" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F44" s="63" t="s">
         <v>221</v>
       </c>
@@ -7623,7 +7574,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="6:10" ht="15.75" thickBot="1">
+    <row r="45" spans="6:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F45" s="67" t="s">
         <v>222</v>
       </c>
@@ -7671,21 +7622,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407D2B8A-E356-4CF8-BF78-D6DBB98A494F}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:J11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="6" max="6" width="4.5" customWidth="1"/>
+    <col min="7" max="7" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.75" thickBot="1">
+    <row r="1" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>204</v>
       </c>
@@ -7695,25 +7646,25 @@
         <v>180</v>
       </c>
       <c r="E1" s="33"/>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="132"/>
-    </row>
-    <row r="2" spans="1:10" ht="129.75" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="131"/>
+    </row>
+    <row r="2" spans="1:10" ht="129.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="127" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G3" s="26" t="s">
         <v>94</v>
       </c>
@@ -7721,7 +7672,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>252</v>
       </c>
@@ -7730,7 +7681,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="75" t="s">
         <v>206</v>
       </c>
@@ -7756,7 +7707,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="63" t="s">
         <v>164</v>
       </c>
@@ -7774,7 +7725,7 @@
       <c r="I6" s="42"/>
       <c r="J6" s="65"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="63" t="s">
         <v>172</v>
       </c>
@@ -7790,12 +7741,12 @@
       <c r="I7" s="42"/>
       <c r="J7" s="65"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="63" t="s">
         <v>171</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="66" t="s">
@@ -7810,7 +7761,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="63" t="s">
         <v>174</v>
       </c>
@@ -7834,7 +7785,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="63" t="s">
         <v>175</v>
       </c>
@@ -7842,7 +7793,7 @@
         <v>0.16</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D10" s="66" t="s">
         <v>274</v>
@@ -7852,13 +7803,13 @@
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J10" s="66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1">
+    <row r="11" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
         <v>173</v>
       </c>
@@ -7876,13 +7827,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1">
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G12" s="79"/>
       <c r="H12" s="42"/>
       <c r="I12" s="55"/>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="G13" s="75" t="s">
         <v>193</v>
       </c>
@@ -7896,7 +7847,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G14" s="63" t="s">
         <v>164</v>
       </c>
@@ -7906,7 +7857,7 @@
       <c r="I14" s="42"/>
       <c r="J14" s="65"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G15" s="63" t="s">
         <v>172</v>
       </c>
@@ -7914,7 +7865,7 @@
       <c r="I15" s="42"/>
       <c r="J15" s="65"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G16" s="63" t="s">
         <v>171</v>
       </c>
@@ -7924,9 +7875,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="7:10">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G17" s="63" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H17" s="47"/>
       <c r="I17" s="42"/>
@@ -7934,7 +7885,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="18" spans="7:10">
+    <row r="18" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G18" s="63" t="s">
         <v>174</v>
       </c>
@@ -7946,7 +7897,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="19" spans="7:10">
+    <row r="19" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G19" s="63" t="s">
         <v>175</v>
       </c>
@@ -7958,7 +7909,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="7:10" ht="16.5" thickBot="1">
+    <row r="20" spans="7:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G20" s="77" t="s">
         <v>173</v>
       </c>
@@ -7968,13 +7919,13 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="7:10" ht="15.75" thickBot="1">
+    <row r="21" spans="7:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G21" s="42"/>
       <c r="H21" s="42"/>
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
     </row>
-    <row r="22" spans="7:10" ht="15.75">
+    <row r="22" spans="7:10" ht="16" x14ac:dyDescent="0.2">
       <c r="G22" s="75" t="s">
         <v>102</v>
       </c>
@@ -7988,7 +7939,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="7:10">
+    <row r="23" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G23" s="63" t="s">
         <v>164</v>
       </c>
@@ -7998,7 +7949,7 @@
       <c r="I23" s="42"/>
       <c r="J23" s="65"/>
     </row>
-    <row r="24" spans="7:10">
+    <row r="24" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G24" s="63" t="s">
         <v>172</v>
       </c>
@@ -8006,7 +7957,7 @@
       <c r="I24" s="42"/>
       <c r="J24" s="65"/>
     </row>
-    <row r="25" spans="7:10">
+    <row r="25" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G25" s="63" t="s">
         <v>171</v>
       </c>
@@ -8016,7 +7967,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="7:10">
+    <row r="26" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G26" s="63" t="s">
         <v>201</v>
       </c>
@@ -8026,7 +7977,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="7:10">
+    <row r="27" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G27" s="63" t="s">
         <v>202</v>
       </c>
@@ -8038,7 +7989,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="7:10">
+    <row r="28" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G28" s="63" t="s">
         <v>203</v>
       </c>
@@ -8048,7 +7999,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="7:10" ht="16.5" thickBot="1">
+    <row r="29" spans="7:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G29" s="77" t="s">
         <v>173</v>
       </c>
@@ -8058,7 +8009,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>228</v>
       </c>
@@ -8097,50 +8048,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74937810-402C-794A-86DB-3B61877792EA}">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView zoomScale="97" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="28.42578125" customWidth="1"/>
-    <col min="9" max="9" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28.5" customWidth="1"/>
+    <col min="9" max="9" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="21.75" thickBot="1">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1" s="61" t="s">
         <v>403</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="E1" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="F1" s="61" t="s">
         <v>405</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>406</v>
       </c>
       <c r="G1" s="71" t="s">
         <v>180</v>
       </c>
       <c r="H1"/>
-      <c r="I1" s="130" t="s">
+      <c r="I1" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="132"/>
-    </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="15.75">
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="131"/>
+    </row>
+    <row r="2" spans="1:15" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
         <v>254</v>
       </c>
@@ -8152,7 +8103,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26" t="s">
@@ -8162,7 +8113,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>252</v>
       </c>
@@ -8173,47 +8124,47 @@
       <c r="J4"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="5" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I5" s="70" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K5" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="L5" s="61" t="s">
         <v>403</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="M5" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="N5" s="61" t="s">
         <v>405</v>
-      </c>
-      <c r="N5" s="61" t="s">
-        <v>406</v>
       </c>
       <c r="O5" s="71" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="70" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C6" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="D6" s="61" t="s">
         <v>403</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="E6" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="F6" s="61" t="s">
         <v>405</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>406</v>
       </c>
       <c r="G6" s="71" t="s">
         <v>180</v>
@@ -8228,7 +8179,7 @@
       <c r="N6" s="42"/>
       <c r="O6" s="66"/>
     </row>
-    <row r="7" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="72" t="s">
         <v>249</v>
       </c>
@@ -8243,7 +8194,7 @@
         <v>230</v>
       </c>
       <c r="J7" s="64" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K7" s="42"/>
       <c r="L7" s="42"/>
@@ -8251,12 +8202,12 @@
       <c r="N7" s="73"/>
       <c r="O7" s="65"/>
     </row>
-    <row r="8" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="63" t="s">
         <v>230</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
@@ -8276,7 +8227,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="63" t="s">
         <v>240</v>
       </c>
@@ -8289,7 +8240,7 @@
         <v>241</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="120" t="s">
+      <c r="I9" s="119" t="s">
         <v>231</v>
       </c>
       <c r="J9" s="47"/>
@@ -8303,8 +8254,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="120" t="s">
+    <row r="10" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="119" t="s">
         <v>231</v>
       </c>
       <c r="B10" s="47">
@@ -8320,7 +8271,7 @@
         <v>0.08</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G10" s="65" t="s">
         <v>239</v>
@@ -8337,7 +8288,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="74" t="s">
         <v>242</v>
       </c>
@@ -8350,8 +8301,8 @@
         <v>241</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="120" t="s">
-        <v>399</v>
+      <c r="I11" s="119" t="s">
+        <v>398</v>
       </c>
       <c r="J11" s="47"/>
       <c r="K11" s="42"/>
@@ -8362,9 +8313,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="120" t="s">
-        <v>399</v>
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="119" t="s">
+        <v>398</v>
       </c>
       <c r="B12" s="47">
         <v>9.48</v>
@@ -8391,7 +8342,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="63" t="s">
         <v>235</v>
       </c>
@@ -8420,7 +8371,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="63" t="s">
         <v>248</v>
       </c>
@@ -8442,7 +8393,7 @@
       <c r="N14" s="42"/>
       <c r="O14" s="66"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="63"/>
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
@@ -8460,7 +8411,7 @@
       <c r="N15" s="42"/>
       <c r="O15" s="66"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75">
+    <row r="16" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="72" t="s">
         <v>250</v>
       </c>
@@ -8483,12 +8434,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="63" t="s">
         <v>171</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
@@ -8512,7 +8463,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="63" t="s">
         <v>174</v>
       </c>
@@ -8542,7 +8493,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="63" t="s">
         <v>243</v>
       </c>
@@ -8573,12 +8524,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="63" t="s">
         <v>244</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C20" s="42" t="s">
         <v>41</v>
@@ -8590,7 +8541,7 @@
         <v>241</v>
       </c>
       <c r="H20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I20" s="63" t="s">
         <v>259</v>
@@ -8604,7 +8555,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="63" t="s">
         <v>259</v>
       </c>
@@ -8631,7 +8582,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="63" t="s">
         <v>189</v>
       </c>
@@ -8655,7 +8606,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="63" t="s">
         <v>190</v>
       </c>
@@ -8679,7 +8630,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="63" t="s">
         <v>191</v>
       </c>
@@ -8695,7 +8646,7 @@
         <v>257</v>
       </c>
       <c r="I24" s="63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J24" s="57"/>
       <c r="K24" s="42"/>
@@ -8706,9 +8657,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="25" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B25" s="57"/>
       <c r="C25" s="42"/>
@@ -8730,7 +8681,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="26" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="67" t="s">
         <v>173</v>
       </c>
@@ -8749,7 +8700,7 @@
       <c r="M26" s="73"/>
       <c r="N26" s="73"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I27" s="73"/>
       <c r="J27" s="73"/>
       <c r="K27" s="73"/>
@@ -8757,7 +8708,7 @@
       <c r="M27" s="73"/>
       <c r="N27" s="73"/>
     </row>
-    <row r="28" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H28" s="3"/>
       <c r="I28" s="42"/>
       <c r="J28" s="42"/>
@@ -8766,7 +8717,7 @@
       <c r="M28" s="42"/>
       <c r="N28" s="42"/>
     </row>
-    <row r="29" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H29" s="3"/>
       <c r="I29"/>
       <c r="J29"/>
@@ -8775,7 +8726,7 @@
       <c r="M29"/>
       <c r="N29"/>
     </row>
-    <row r="30" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -8791,7 +8742,7 @@
       <c r="M30"/>
       <c r="N30"/>
     </row>
-    <row r="31" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G31" s="28"/>
       <c r="I31"/>
       <c r="J31"/>
@@ -8800,7 +8751,7 @@
       <c r="M31"/>
       <c r="N31"/>
     </row>
-    <row r="32" spans="1:15" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="32" spans="1:15" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -8816,7 +8767,7 @@
       <c r="M32"/>
       <c r="N32"/>
     </row>
-    <row r="33" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="33" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H33" s="3"/>
       <c r="I33"/>
       <c r="J33"/>
@@ -8825,7 +8776,7 @@
       <c r="M33"/>
       <c r="N33"/>
     </row>
-    <row r="34" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="34" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H34" s="3"/>
       <c r="I34"/>
       <c r="J34"/>
@@ -8834,7 +8785,7 @@
       <c r="M34"/>
       <c r="N34"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -8844,7 +8795,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -8854,7 +8805,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -8863,7 +8814,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="40" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
@@ -8872,7 +8823,7 @@
       <c r="M40"/>
       <c r="N40"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -8881,7 +8832,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -8890,7 +8841,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="43" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H43" s="3"/>
       <c r="I43"/>
       <c r="J43"/>
@@ -8899,7 +8850,7 @@
       <c r="M43"/>
       <c r="N43"/>
     </row>
-    <row r="44" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="44" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -8915,7 +8866,7 @@
       <c r="M44"/>
       <c r="N44"/>
     </row>
-    <row r="45" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="45" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -8931,7 +8882,7 @@
       <c r="M45"/>
       <c r="N45"/>
     </row>
-    <row r="46" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="46" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -8946,7 +8897,7 @@
       <c r="M46"/>
       <c r="N46"/>
     </row>
-    <row r="47" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="47" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -8961,7 +8912,7 @@
       <c r="M47"/>
       <c r="N47"/>
     </row>
-    <row r="48" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="48" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -8975,7 +8926,7 @@
       <c r="M48"/>
       <c r="N48"/>
     </row>
-    <row r="49" spans="1:14" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="49" spans="1:14" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -8989,10 +8940,10 @@
       <c r="M49"/>
       <c r="N49"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>228</v>
       </c>
@@ -9008,19 +8959,19 @@
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:14" ht="15.75">
+    <row r="54" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="52"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -9029,7 +8980,7 @@
       <c r="F54" s="7"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="1:14" ht="15.75">
+    <row r="55" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="52"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -9092,31 +9043,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FD2D44-9B1B-421A-86D6-11D29F42E873}">
   <dimension ref="A1:XEZ120"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="42.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="41.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.140625" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.7109375" style="3"/>
+    <col min="2" max="2" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="42.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.1640625" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="21.75" thickBot="1">
+    <row r="1" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>255</v>
       </c>
@@ -9125,7 +9076,7 @@
         <v>39</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>237</v>
@@ -9136,20 +9087,20 @@
       <c r="G1" t="s">
         <v>180</v>
       </c>
-      <c r="I1" s="130" t="s">
+      <c r="I1" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="132"/>
-    </row>
-    <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="90" customHeight="1">
-      <c r="A2" s="127" t="s">
-        <v>397</v>
-      </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="131"/>
+    </row>
+    <row r="2" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="126" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -9159,7 +9110,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="54" t="s">
         <v>252</v>
       </c>
@@ -9176,7 +9127,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" s="8" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -9189,24 +9140,24 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75">
+    <row r="5" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="60" t="s">
         <v>111</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C5" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="D5" s="61" t="s">
         <v>403</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="E5" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="F5" s="61" t="s">
         <v>405</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>406</v>
       </c>
       <c r="G5" s="62" t="s">
         <v>180</v>
@@ -9216,19 +9167,19 @@
         <v>111</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K5" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="L5" s="61" t="s">
         <v>403</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="M5" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="N5" s="61" t="s">
         <v>405</v>
-      </c>
-      <c r="N5" s="61" t="s">
-        <v>406</v>
       </c>
       <c r="O5" s="62" t="s">
         <v>180</v>
@@ -11280,12 +11231,12 @@
       <c r="XER5"/>
       <c r="XEZ5"/>
     </row>
-    <row r="6" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
+    <row r="6" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
       <c r="A6" s="63" t="s">
         <v>230</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42"/>
@@ -11296,7 +11247,7 @@
         <v>230</v>
       </c>
       <c r="J6" s="64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
@@ -11304,7 +11255,7 @@
       <c r="N6" s="42"/>
       <c r="O6" s="65"/>
     </row>
-    <row r="7" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
+    <row r="7" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
       <c r="A7" s="63" t="s">
         <v>259</v>
       </c>
@@ -11330,7 +11281,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
+    <row r="8" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
       <c r="A8" s="63" t="s">
         <v>273</v>
       </c>
@@ -11354,7 +11305,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
+    <row r="9" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
       <c r="A9" s="63" t="s">
         <v>265</v>
       </c>
@@ -11384,7 +11335,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
+    <row r="10" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
       <c r="A10" s="63" t="s">
         <v>266</v>
       </c>
@@ -11408,9 +11359,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
+    <row r="11" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
       <c r="A11" s="63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="42"/>
@@ -11421,7 +11372,7 @@
         <v>241</v>
       </c>
       <c r="I11" s="63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J11" s="43"/>
       <c r="K11" s="42"/>
@@ -11432,7 +11383,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75" thickBot="1">
+    <row r="12" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
         <v>272</v>
       </c>
@@ -11456,7 +11407,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75" thickBot="1">
+    <row r="13" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55"/>
       <c r="B13" s="55"/>
       <c r="C13" s="55"/>
@@ -11472,24 +11423,24 @@
       <c r="N13" s="55"/>
       <c r="O13" s="55"/>
     </row>
-    <row r="14" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="16.5" thickBot="1">
+    <row r="14" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
         <v>115</v>
       </c>
       <c r="B14" s="61" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C14" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="D14" s="61" t="s">
         <v>403</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="E14" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="F14" s="61" t="s">
         <v>405</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>406</v>
       </c>
       <c r="G14" s="62" t="s">
         <v>180</v>
@@ -11502,7 +11453,7 @@
       <c r="N14" s="55"/>
       <c r="O14" s="55"/>
     </row>
-    <row r="15" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="15.75">
+    <row r="15" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="63" t="s">
         <v>230</v>
       </c>
@@ -11518,25 +11469,25 @@
         <v>112</v>
       </c>
       <c r="J15" s="61" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K15" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="L15" s="61" t="s">
         <v>403</v>
       </c>
-      <c r="L15" s="61" t="s">
+      <c r="M15" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="M15" s="61" t="s">
+      <c r="N15" s="61" t="s">
         <v>405</v>
-      </c>
-      <c r="N15" s="61" t="s">
-        <v>406</v>
       </c>
       <c r="O15" s="62" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380">
+    <row r="16" spans="1:1020 1028:2044 2052:3068 3076:4092 4100:5116 5124:6140 6148:7164 7172:8188 8196:9212 9220:10236 10244:11260 11268:12284 12292:13308 13316:14332 14340:15356 15364:16380" x14ac:dyDescent="0.2">
       <c r="A16" s="63" t="s">
         <v>259</v>
       </c>
@@ -11552,7 +11503,7 @@
         <v>230</v>
       </c>
       <c r="J16" s="64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K16" s="42"/>
       <c r="L16" s="42"/>
@@ -11560,9 +11511,9 @@
       <c r="N16" s="42"/>
       <c r="O16" s="65"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B17" s="43">
         <v>27</v>
@@ -11588,9 +11539,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="63" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B18" s="43"/>
       <c r="C18" s="42"/>
@@ -11601,7 +11552,7 @@
         <v>239</v>
       </c>
       <c r="I18" s="63" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J18" s="43"/>
       <c r="K18" s="42"/>
@@ -11612,9 +11563,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="63" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="42" t="s">
@@ -11640,9 +11591,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B20" s="43"/>
       <c r="C20" s="42"/>
@@ -11653,7 +11604,7 @@
         <v>239</v>
       </c>
       <c r="I20" s="63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J20" s="43"/>
       <c r="K20" s="42"/>
@@ -11664,9 +11615,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1">
+    <row r="21" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="42" t="s">
@@ -11690,9 +11641,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B22" s="43"/>
       <c r="C22" s="42"/>
@@ -11710,9 +11661,9 @@
       <c r="N22" s="55"/>
       <c r="O22" s="55"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1">
+    <row r="23" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B23" s="43"/>
       <c r="C23" s="42" t="s">
@@ -11732,9 +11683,9 @@
       <c r="N23" s="55"/>
       <c r="O23" s="55"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75">
+    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B24" s="43"/>
       <c r="C24" s="42"/>
@@ -11748,25 +11699,25 @@
         <v>113</v>
       </c>
       <c r="J24" s="61" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K24" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="L24" s="61" t="s">
         <v>403</v>
       </c>
-      <c r="L24" s="61" t="s">
+      <c r="M24" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="M24" s="61" t="s">
+      <c r="N24" s="61" t="s">
         <v>405</v>
-      </c>
-      <c r="N24" s="61" t="s">
-        <v>406</v>
       </c>
       <c r="O24" s="62" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="63" t="s">
         <v>263</v>
       </c>
@@ -11792,7 +11743,7 @@
       <c r="N25" s="42"/>
       <c r="O25" s="65"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="63" t="s">
         <v>264</v>
       </c>
@@ -11816,9 +11767,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B27" s="43"/>
       <c r="C27" s="42"/>
@@ -11842,7 +11793,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1">
+    <row r="28" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="67" t="s">
         <v>272</v>
       </c>
@@ -11866,7 +11817,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I29" s="63" t="s">
         <v>268</v>
       </c>
@@ -11881,7 +11832,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I30" s="63" t="s">
         <v>269</v>
       </c>
@@ -11896,7 +11847,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I31" s="63" t="s">
         <v>270</v>
       </c>
@@ -11911,9 +11862,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I32" s="63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J32" s="43"/>
       <c r="K32" s="42"/>
@@ -11924,7 +11875,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="33" spans="9:15" ht="15.75" thickBot="1">
+    <row r="33" spans="9:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I33" s="67" t="s">
         <v>272</v>
       </c>
@@ -11937,7 +11888,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="9:15">
+    <row r="34" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I34" s="55"/>
       <c r="J34" s="55"/>
       <c r="K34" s="55"/>
@@ -11946,7 +11897,7 @@
       <c r="N34" s="55"/>
       <c r="O34" s="55"/>
     </row>
-    <row r="35" spans="9:15" ht="15.75" thickBot="1">
+    <row r="35" spans="9:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I35" s="55"/>
       <c r="J35" s="55"/>
       <c r="K35" s="55"/>
@@ -11955,30 +11906,30 @@
       <c r="N35" s="55"/>
       <c r="O35" s="55"/>
     </row>
-    <row r="36" spans="9:15" ht="15.75">
+    <row r="36" spans="9:15" ht="16" x14ac:dyDescent="0.2">
       <c r="I36" s="60" t="s">
         <v>115</v>
       </c>
       <c r="J36" s="61" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K36" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="L36" s="61" t="s">
         <v>403</v>
       </c>
-      <c r="L36" s="61" t="s">
+      <c r="M36" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="M36" s="61" t="s">
+      <c r="N36" s="61" t="s">
         <v>405</v>
-      </c>
-      <c r="N36" s="61" t="s">
-        <v>406</v>
       </c>
       <c r="O36" s="62" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="9:15">
+    <row r="37" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I37" s="63" t="s">
         <v>230</v>
       </c>
@@ -11991,7 +11942,7 @@
       <c r="N37" s="42"/>
       <c r="O37" s="65"/>
     </row>
-    <row r="38" spans="9:15">
+    <row r="38" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I38" s="63" t="s">
         <v>259</v>
       </c>
@@ -12004,9 +11955,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="9:15">
+    <row r="39" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I39" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J39" s="43"/>
       <c r="K39" s="42" t="s">
@@ -12019,9 +11970,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="40" spans="9:15">
+    <row r="40" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I40" s="63" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J40" s="43"/>
       <c r="K40" s="42"/>
@@ -12032,9 +11983,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="9:15">
+    <row r="41" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I41" s="63" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J41" s="43"/>
       <c r="K41" s="42" t="s">
@@ -12047,9 +11998,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="42" spans="9:15">
+    <row r="42" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I42" s="63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J42" s="43"/>
       <c r="K42" s="42"/>
@@ -12060,9 +12011,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="43" spans="9:15">
+    <row r="43" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I43" s="63" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J43" s="43"/>
       <c r="K43" s="42" t="s">
@@ -12075,9 +12026,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="9:15">
+    <row r="44" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I44" s="63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J44" s="43"/>
       <c r="K44" s="42"/>
@@ -12088,9 +12039,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="9:15">
+    <row r="45" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I45" s="63" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="J45" s="43"/>
       <c r="K45" s="42" t="s">
@@ -12103,9 +12054,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="9:15">
+    <row r="46" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I46" s="63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J46" s="43"/>
       <c r="K46" s="42"/>
@@ -12116,7 +12067,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="9:15">
+    <row r="47" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I47" s="63" t="s">
         <v>263</v>
       </c>
@@ -12131,7 +12082,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="48" spans="9:15">
+    <row r="48" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I48" s="63" t="s">
         <v>264</v>
       </c>
@@ -12144,9 +12095,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I49" s="63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J49" s="43"/>
       <c r="K49" s="42"/>
@@ -12157,7 +12108,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.75" thickBot="1">
+    <row r="50" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I50" s="67" t="s">
         <v>272</v>
       </c>
@@ -12170,7 +12121,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15.75" thickBot="1">
+    <row r="51" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I51" s="55"/>
       <c r="J51" s="55"/>
       <c r="K51" s="55"/>
@@ -12179,30 +12130,30 @@
       <c r="N51" s="55"/>
       <c r="O51" s="55"/>
     </row>
-    <row r="52" spans="1:15" ht="15.75">
+    <row r="52" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="I52" s="60" t="s">
         <v>117</v>
       </c>
       <c r="J52" s="61" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K52" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="L52" s="61" t="s">
         <v>403</v>
       </c>
-      <c r="L52" s="61" t="s">
+      <c r="M52" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="M52" s="61" t="s">
+      <c r="N52" s="61" t="s">
         <v>405</v>
-      </c>
-      <c r="N52" s="61" t="s">
-        <v>406</v>
       </c>
       <c r="O52" s="62" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I53" s="63" t="s">
         <v>230</v>
       </c>
@@ -12215,7 +12166,7 @@
       <c r="N53" s="42"/>
       <c r="O53" s="65"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I54" s="63" t="s">
         <v>259</v>
       </c>
@@ -12228,7 +12179,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I55" s="63" t="s">
         <v>260</v>
       </c>
@@ -12243,9 +12194,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I56" s="63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J56" s="43"/>
       <c r="K56" s="42"/>
@@ -12256,7 +12207,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15.75" thickBot="1">
+    <row r="57" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I57" s="67" t="s">
         <v>272</v>
       </c>
@@ -12269,7 +12220,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -12279,7 +12230,7 @@
       <c r="G61"/>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -12288,7 +12239,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -12298,7 +12249,7 @@
       <c r="G63" s="8"/>
       <c r="H63" s="26"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -12308,7 +12259,7 @@
       <c r="G64"/>
       <c r="H64" s="28"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -12318,7 +12269,7 @@
       <c r="G65" s="28"/>
       <c r="H65" s="8"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>228</v>
       </c>
@@ -12332,7 +12283,7 @@
       <c r="G66"/>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -12341,7 +12292,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -12350,7 +12301,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -12359,7 +12310,7 @@
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -12376,7 +12327,7 @@
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -12392,7 +12343,7 @@
       <c r="N71"/>
       <c r="O71"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -12408,7 +12359,7 @@
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -12424,7 +12375,7 @@
       <c r="N73"/>
       <c r="O73"/>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -12441,7 +12392,7 @@
       <c r="N74"/>
       <c r="O74"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -12451,7 +12402,7 @@
       <c r="G75"/>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -12460,7 +12411,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -12469,7 +12420,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -12479,7 +12430,7 @@
       <c r="G78"/>
       <c r="H78"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -12489,7 +12440,7 @@
       <c r="G79" s="28"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -12499,7 +12450,7 @@
       <c r="G80"/>
       <c r="H80"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -12509,7 +12460,7 @@
       <c r="G81" s="8"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -12519,7 +12470,7 @@
       <c r="G82" s="8"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -12536,7 +12487,7 @@
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -12553,7 +12504,7 @@
       <c r="N84"/>
       <c r="O84"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -12569,7 +12520,7 @@
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -12586,7 +12537,7 @@
       <c r="N86"/>
       <c r="O86"/>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -12603,7 +12554,7 @@
       <c r="N87"/>
       <c r="O87"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -12612,7 +12563,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -12621,7 +12572,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -12630,7 +12581,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -12640,7 +12591,7 @@
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -12649,7 +12600,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -12658,7 +12609,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -12667,7 +12618,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -12684,7 +12635,7 @@
       <c r="N95" s="8"/>
       <c r="O95" s="8"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -12701,7 +12652,7 @@
       <c r="N96"/>
       <c r="O96"/>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -12717,7 +12668,7 @@
       <c r="N97" s="8"/>
       <c r="O97" s="8"/>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -12733,7 +12684,7 @@
       <c r="N98"/>
       <c r="O98"/>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -12750,7 +12701,7 @@
       <c r="N99"/>
       <c r="O99"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -12760,7 +12711,7 @@
       <c r="G100" s="8"/>
       <c r="H100"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -12770,7 +12721,7 @@
       <c r="G101" s="8"/>
       <c r="H101"/>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -12780,7 +12731,7 @@
       <c r="G102" s="8"/>
       <c r="H102"/>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -12789,7 +12740,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -12798,7 +12749,7 @@
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -12807,7 +12758,7 @@
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -12817,7 +12768,7 @@
       <c r="G106"/>
       <c r="H106"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -12827,7 +12778,7 @@
       <c r="G107"/>
       <c r="H107"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -12837,7 +12788,7 @@
       <c r="G108"/>
       <c r="H108" s="8"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -12847,7 +12798,7 @@
       <c r="G109"/>
       <c r="H109" s="8"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -12857,7 +12808,7 @@
       <c r="G110"/>
       <c r="H110"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -12865,7 +12816,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
     </row>
-    <row r="118" spans="9:15">
+    <row r="118" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
@@ -12874,7 +12825,7 @@
       <c r="N118" s="8"/>
       <c r="O118" s="8"/>
     </row>
-    <row r="119" spans="9:15">
+    <row r="119" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I119"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
@@ -12883,7 +12834,7 @@
       <c r="N119"/>
       <c r="O119"/>
     </row>
-    <row r="120" spans="9:15">
+    <row r="120" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
